--- a/doc/NewFactory/intermittent_supply_wind.xlsx
+++ b/doc/NewFactory/intermittent_supply_wind.xlsx
@@ -367,11 +367,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="88111872"/>
-        <c:axId val="790299200"/>
+        <c:axId val="102789632"/>
+        <c:axId val="102787904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="88111872"/>
+        <c:axId val="102789632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -400,12 +400,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="790299200"/>
+        <c:crossAx val="102787904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="790299200"/>
+        <c:axId val="102787904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -445,7 +445,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88111872"/>
+        <c:crossAx val="102789632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8652,11 +8652,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="90466560"/>
-        <c:axId val="237584960"/>
+        <c:axId val="102790784"/>
+        <c:axId val="102791360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="90466560"/>
+        <c:axId val="102790784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8685,12 +8685,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="237584960"/>
+        <c:crossAx val="102791360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="237584960"/>
+        <c:axId val="102791360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8730,7 +8730,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90466560"/>
+        <c:crossAx val="102790784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9115,8 +9115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K674"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A626" workbookViewId="0">
-      <selection activeCell="J661" sqref="J661"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9156,11 +9156,9 @@
         <v>1</v>
       </c>
       <c r="E2" s="4">
-        <f>IF(B2&gt;$K$3,0,IF(B2&lt;$I$3,0,IF(B2&gt;$J$3,1,(B2-$I$3)/($J$3-$I$3))))</f>
         <v>0.91474411704323633</v>
       </c>
       <c r="F2" s="4">
-        <f>IF(B2&gt;$K$4,0,IF(B2&lt;$I$4,0,IF(B2&gt;$J$4,1,(B2-$I$4)/($J$4-$I$4))))</f>
         <v>1</v>
       </c>
       <c r="H2" s="9" t="s">
@@ -9187,11 +9185,9 @@
         <v>2</v>
       </c>
       <c r="E3" s="4">
-        <f t="shared" ref="E3:E66" si="0">IF(B3&gt;$K$3,0,IF(B3&lt;$I$3,0,IF(B3&gt;$J$3,1,(B3-$I$3)/($J$3-$I$3))))</f>
         <v>1</v>
       </c>
       <c r="F3" s="4">
-        <f t="shared" ref="F3:F66" si="1">IF(B3&gt;$K$4,0,IF(B3&lt;$I$4,0,IF(B3&gt;$J$4,1,(B3-$I$4)/($J$4-$I$4))))</f>
         <v>1</v>
       </c>
       <c r="H3" s="12" t="s">
@@ -9218,11 +9214,9 @@
         <v>3</v>
       </c>
       <c r="E4" s="4">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F4" s="4">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H4" s="14" t="s">
@@ -9249,11 +9243,9 @@
         <v>4</v>
       </c>
       <c r="E5" s="4">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -9268,11 +9260,9 @@
         <v>5</v>
       </c>
       <c r="E6" s="4">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F6" s="4">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -9287,11 +9277,9 @@
         <v>6</v>
       </c>
       <c r="E7" s="4">
-        <f t="shared" si="0"/>
         <v>0.88126945495605458</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -9306,11 +9294,9 @@
         <v>7</v>
       </c>
       <c r="E8" s="4">
-        <f t="shared" si="0"/>
         <v>0.70836292613636365</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -9325,11 +9311,9 @@
         <v>8</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" si="0"/>
         <v>0.48284114490855823</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" si="1"/>
         <v>0.43708419799804688</v>
       </c>
     </row>
@@ -9344,11 +9328,9 @@
         <v>9</v>
       </c>
       <c r="E10" s="4">
-        <f t="shared" si="0"/>
         <v>0.25341380726207363</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9363,11 +9345,9 @@
         <v>10</v>
       </c>
       <c r="E11" s="4">
-        <f t="shared" si="0"/>
         <v>7.8641241247003654E-2</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9382,11 +9362,9 @@
         <v>11</v>
       </c>
       <c r="E12" s="4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9401,11 +9379,9 @@
         <v>12</v>
       </c>
       <c r="E13" s="4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9420,11 +9396,9 @@
         <v>13</v>
       </c>
       <c r="E14" s="4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9439,11 +9413,9 @@
         <v>14</v>
       </c>
       <c r="E15" s="4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9458,11 +9430,9 @@
         <v>15</v>
       </c>
       <c r="E16" s="4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9477,11 +9447,9 @@
         <v>16</v>
       </c>
       <c r="E17" s="4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9496,11 +9464,9 @@
         <v>17</v>
       </c>
       <c r="E18" s="4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F18" s="4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9515,11 +9481,9 @@
         <v>18</v>
       </c>
       <c r="E19" s="4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F19" s="4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9534,11 +9498,9 @@
         <v>19</v>
       </c>
       <c r="E20" s="4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F20" s="4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9553,11 +9515,9 @@
         <v>20</v>
       </c>
       <c r="E21" s="4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F21" s="4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9572,11 +9532,9 @@
         <v>21</v>
       </c>
       <c r="E22" s="4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F22" s="4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9591,11 +9549,9 @@
         <v>22</v>
       </c>
       <c r="E23" s="4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F23" s="4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9610,11 +9566,9 @@
         <v>23</v>
       </c>
       <c r="E24" s="4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F24" s="4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9629,11 +9583,9 @@
         <v>24</v>
       </c>
       <c r="E25" s="4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F25" s="4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9648,11 +9600,9 @@
         <v>25</v>
       </c>
       <c r="E26" s="4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F26" s="4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9667,11 +9617,9 @@
         <v>26</v>
       </c>
       <c r="E27" s="4">
-        <f t="shared" si="0"/>
         <v>2.1096142855554297E-3</v>
       </c>
       <c r="F27" s="4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9686,11 +9634,9 @@
         <v>27</v>
       </c>
       <c r="E28" s="4">
-        <f t="shared" si="0"/>
         <v>9.9713672291149122E-2</v>
       </c>
       <c r="F28" s="4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9705,11 +9651,9 @@
         <v>28</v>
       </c>
       <c r="E29" s="4">
-        <f t="shared" si="0"/>
         <v>0.16592433235861997</v>
       </c>
       <c r="F29" s="4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9724,11 +9668,9 @@
         <v>29</v>
       </c>
       <c r="E30" s="4">
-        <f t="shared" si="0"/>
         <v>0.21679683165116728</v>
       </c>
       <c r="F30" s="4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9743,11 +9685,9 @@
         <v>30</v>
       </c>
       <c r="E31" s="4">
-        <f t="shared" si="0"/>
         <v>0.2599724422801627</v>
       </c>
       <c r="F31" s="4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9762,11 +9702,9 @@
         <v>31</v>
       </c>
       <c r="E32" s="4">
-        <f t="shared" si="0"/>
         <v>0.29412932829423361</v>
       </c>
       <c r="F32" s="4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9781,11 +9719,9 @@
         <v>32</v>
       </c>
       <c r="E33" s="4">
-        <f t="shared" si="0"/>
         <v>0.3146899830211291</v>
       </c>
       <c r="F33" s="4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9800,11 +9736,9 @@
         <v>33</v>
       </c>
       <c r="E34" s="4">
-        <f t="shared" si="0"/>
         <v>0.32907373254949362</v>
       </c>
       <c r="F34" s="4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9819,11 +9753,9 @@
         <v>34</v>
       </c>
       <c r="E35" s="4">
-        <f t="shared" si="0"/>
         <v>0.32796742699362996</v>
       </c>
       <c r="F35" s="4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9838,11 +9770,9 @@
         <v>35</v>
       </c>
       <c r="E36" s="4">
-        <f t="shared" si="0"/>
         <v>0.30663876100019999</v>
       </c>
       <c r="F36" s="4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9857,11 +9787,9 @@
         <v>36</v>
       </c>
       <c r="E37" s="4">
-        <f t="shared" si="0"/>
         <v>0.27550580284812276</v>
       </c>
       <c r="F37" s="4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9876,11 +9804,9 @@
         <v>37</v>
       </c>
       <c r="E38" s="4">
-        <f t="shared" si="0"/>
         <v>0.24960166757756996</v>
       </c>
       <c r="F38" s="4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9895,11 +9821,9 @@
         <v>38</v>
       </c>
       <c r="E39" s="4">
-        <f t="shared" si="0"/>
         <v>0.22724723815918002</v>
       </c>
       <c r="F39" s="4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9914,11 +9838,9 @@
         <v>39</v>
       </c>
       <c r="E40" s="4">
-        <f t="shared" si="0"/>
         <v>0.20582493868741089</v>
       </c>
       <c r="F40" s="4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9933,11 +9855,9 @@
         <v>40</v>
       </c>
       <c r="E41" s="4">
-        <f t="shared" si="0"/>
         <v>0.22320660677823187</v>
       </c>
       <c r="F41" s="4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9952,11 +9872,9 @@
         <v>41</v>
       </c>
       <c r="E42" s="4">
-        <f t="shared" si="0"/>
         <v>0.26037289879538822</v>
       </c>
       <c r="F42" s="4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9971,11 +9889,9 @@
         <v>42</v>
       </c>
       <c r="E43" s="4">
-        <f t="shared" si="0"/>
         <v>0.30582423643632362</v>
       </c>
       <c r="F43" s="4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9990,11 +9906,9 @@
         <v>43</v>
       </c>
       <c r="E44" s="4">
-        <f t="shared" si="0"/>
         <v>0.34993141347711726</v>
       </c>
       <c r="F44" s="4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10009,11 +9923,9 @@
         <v>44</v>
       </c>
       <c r="E45" s="4">
-        <f t="shared" si="0"/>
         <v>0.37193879214200093</v>
       </c>
       <c r="F45" s="4">
-        <f t="shared" si="1"/>
         <v>3.0442237854003313E-2</v>
       </c>
     </row>
@@ -10028,11 +9940,9 @@
         <v>45</v>
       </c>
       <c r="E46" s="4">
-        <f t="shared" si="0"/>
         <v>0.38156838850541547</v>
       </c>
       <c r="F46" s="4">
-        <f t="shared" si="1"/>
         <v>6.5750757853190109E-2</v>
       </c>
     </row>
@@ -10047,11 +9957,9 @@
         <v>46</v>
       </c>
       <c r="E47" s="4">
-        <f t="shared" si="0"/>
         <v>0.3535388166254218</v>
       </c>
       <c r="F47" s="4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10066,11 +9974,9 @@
         <v>47</v>
       </c>
       <c r="E48" s="4">
-        <f t="shared" si="0"/>
         <v>0.31698916175148728</v>
       </c>
       <c r="F48" s="4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10085,11 +9991,9 @@
         <v>48</v>
       </c>
       <c r="E49" s="4">
-        <f t="shared" si="0"/>
         <v>0.26973017779263542</v>
       </c>
       <c r="F49" s="4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10104,11 +10008,9 @@
         <v>49</v>
       </c>
       <c r="E50" s="4">
-        <f t="shared" si="0"/>
         <v>0.22797151045365727</v>
       </c>
       <c r="F50" s="4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10123,11 +10025,9 @@
         <v>50</v>
       </c>
       <c r="E51" s="4">
-        <f t="shared" si="0"/>
         <v>0.1979382254860618</v>
       </c>
       <c r="F51" s="4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10142,11 +10042,9 @@
         <v>51</v>
       </c>
       <c r="E52" s="4">
-        <f t="shared" si="0"/>
         <v>0.18258190155029272</v>
       </c>
       <c r="F52" s="4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10161,11 +10059,9 @@
         <v>52</v>
       </c>
       <c r="E53" s="4">
-        <f t="shared" si="0"/>
         <v>0.18323599208484997</v>
       </c>
       <c r="F53" s="4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10180,11 +10076,9 @@
         <v>53</v>
       </c>
       <c r="E54" s="4">
-        <f t="shared" si="0"/>
         <v>0.18606762452558998</v>
       </c>
       <c r="F54" s="4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10199,11 +10093,9 @@
         <v>54</v>
       </c>
       <c r="E55" s="4">
-        <f t="shared" si="0"/>
         <v>0.18154031580144725</v>
       </c>
       <c r="F55" s="4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10218,11 +10110,9 @@
         <v>55</v>
       </c>
       <c r="E56" s="4">
-        <f t="shared" si="0"/>
         <v>0.17729174007068996</v>
       </c>
       <c r="F56" s="4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10237,11 +10127,9 @@
         <v>56</v>
       </c>
       <c r="E57" s="4">
-        <f t="shared" si="0"/>
         <v>0.1872194897044791</v>
       </c>
       <c r="F57" s="4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10256,11 +10144,9 @@
         <v>57</v>
       </c>
       <c r="E58" s="4">
-        <f t="shared" si="0"/>
         <v>0.21781674298373185</v>
       </c>
       <c r="F58" s="4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10275,11 +10161,9 @@
         <v>58</v>
       </c>
       <c r="E59" s="4">
-        <f t="shared" si="0"/>
         <v>0.24531256068836543</v>
       </c>
       <c r="F59" s="4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10294,11 +10178,9 @@
         <v>59</v>
       </c>
       <c r="E60" s="4">
-        <f t="shared" si="0"/>
         <v>0.25989840247414359</v>
       </c>
       <c r="F60" s="4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10313,11 +10195,9 @@
         <v>60</v>
       </c>
       <c r="E61" s="4">
-        <f t="shared" si="0"/>
         <v>0.27541438016024544</v>
       </c>
       <c r="F61" s="4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10332,11 +10212,9 @@
         <v>61</v>
       </c>
       <c r="E62" s="4">
-        <f t="shared" si="0"/>
         <v>0.28300766511396913</v>
       </c>
       <c r="F62" s="4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10351,11 +10229,9 @@
         <v>62</v>
       </c>
       <c r="E63" s="4">
-        <f t="shared" si="0"/>
         <v>0.29862750660289455</v>
       </c>
       <c r="F63" s="4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10370,11 +10246,9 @@
         <v>63</v>
       </c>
       <c r="E64" s="4">
-        <f t="shared" si="0"/>
         <v>0.3226686824451791</v>
       </c>
       <c r="F64" s="4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10389,11 +10263,9 @@
         <v>64</v>
       </c>
       <c r="E65" s="4">
-        <f t="shared" si="0"/>
         <v>0.31483814933083276</v>
       </c>
       <c r="F65" s="4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10408,11 +10280,9 @@
         <v>65</v>
       </c>
       <c r="E66" s="4">
-        <f t="shared" si="0"/>
         <v>0.2876281738281255</v>
       </c>
       <c r="F66" s="4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10427,11 +10297,9 @@
         <v>66</v>
       </c>
       <c r="E67" s="4">
-        <f t="shared" ref="E67:E130" si="2">IF(B67&gt;$K$3,0,IF(B67&lt;$I$3,0,IF(B67&gt;$J$3,1,(B67-$I$3)/($J$3-$I$3))))</f>
         <v>0.26055010882290913</v>
       </c>
       <c r="F67" s="4">
-        <f t="shared" ref="F67:F130" si="3">IF(B67&gt;$K$4,0,IF(B67&lt;$I$4,0,IF(B67&gt;$J$4,1,(B67-$I$4)/($J$4-$I$4))))</f>
         <v>0</v>
       </c>
     </row>
@@ -10446,11 +10314,9 @@
         <v>67</v>
       </c>
       <c r="E68" s="4">
-        <f t="shared" si="2"/>
         <v>0.24447497454556544</v>
       </c>
       <c r="F68" s="4">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -10465,11 +10331,9 @@
         <v>68</v>
       </c>
       <c r="E69" s="4">
-        <f t="shared" si="2"/>
         <v>0.24931816621260186</v>
       </c>
       <c r="F69" s="4">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -10484,11 +10348,9 @@
         <v>69</v>
       </c>
       <c r="E70" s="4">
-        <f t="shared" si="2"/>
         <v>0.27605043758045544</v>
       </c>
       <c r="F70" s="4">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -10503,11 +10365,9 @@
         <v>70</v>
       </c>
       <c r="E71" s="4">
-        <f t="shared" si="2"/>
         <v>0.32061724229292454</v>
       </c>
       <c r="F71" s="4">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -10522,11 +10382,9 @@
         <v>71</v>
       </c>
       <c r="E72" s="4">
-        <f t="shared" si="2"/>
         <v>0.36714935302734358</v>
       </c>
       <c r="F72" s="4">
-        <f t="shared" si="3"/>
         <v>1.2880961100259825E-2</v>
       </c>
     </row>
@@ -10541,11 +10399,9 @@
         <v>72</v>
       </c>
       <c r="E73" s="4">
-        <f t="shared" si="2"/>
         <v>0.41337975588711823</v>
       </c>
       <c r="F73" s="4">
-        <f t="shared" si="3"/>
         <v>0.18239243825276694</v>
       </c>
     </row>
@@ -10560,11 +10416,9 @@
         <v>73</v>
       </c>
       <c r="E74" s="4">
-        <f t="shared" si="2"/>
         <v>0.460863460193981</v>
       </c>
       <c r="F74" s="4">
-        <f t="shared" si="3"/>
         <v>0.35649935404459693</v>
       </c>
     </row>
@@ -10579,11 +10433,9 @@
         <v>74</v>
       </c>
       <c r="E75" s="4">
-        <f t="shared" si="2"/>
         <v>0.49653963609175267</v>
       </c>
       <c r="F75" s="4">
-        <f t="shared" si="3"/>
         <v>0.48731199900309302</v>
       </c>
     </row>
@@ -10598,11 +10450,9 @@
         <v>75</v>
       </c>
       <c r="E76" s="4">
-        <f t="shared" si="2"/>
         <v>0.51041923869739914</v>
       </c>
       <c r="F76" s="4">
-        <f t="shared" si="3"/>
         <v>0.53820387522379676</v>
       </c>
     </row>
@@ -10617,11 +10467,9 @@
         <v>76</v>
       </c>
       <c r="E77" s="4">
-        <f t="shared" si="2"/>
         <v>0.49836531552401458</v>
       </c>
       <c r="F77" s="4">
-        <f t="shared" si="3"/>
         <v>0.49400615692138672</v>
       </c>
     </row>
@@ -10636,11 +10484,9 @@
         <v>77</v>
       </c>
       <c r="E78" s="4">
-        <f t="shared" si="2"/>
         <v>0.47318952733820185</v>
       </c>
       <c r="F78" s="4">
-        <f t="shared" si="3"/>
         <v>0.40169493357340674</v>
       </c>
     </row>
@@ -10655,11 +10501,9 @@
         <v>78</v>
       </c>
       <c r="E79" s="4">
-        <f t="shared" si="2"/>
         <v>0.42355225302956367</v>
       </c>
       <c r="F79" s="4">
-        <f t="shared" si="3"/>
         <v>0.21969159444173356</v>
       </c>
     </row>
@@ -10674,11 +10518,9 @@
         <v>79</v>
       </c>
       <c r="E80" s="4">
-        <f t="shared" si="2"/>
         <v>0.35876746611161631</v>
       </c>
       <c r="F80" s="4">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -10693,11 +10535,9 @@
         <v>80</v>
       </c>
       <c r="E81" s="4">
-        <f t="shared" si="2"/>
         <v>0.29157088019631094</v>
       </c>
       <c r="F81" s="4">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -10712,11 +10552,9 @@
         <v>81</v>
       </c>
       <c r="E82" s="4">
-        <f t="shared" si="2"/>
         <v>0.23610578883777997</v>
       </c>
       <c r="F82" s="4">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -10731,11 +10569,9 @@
         <v>82</v>
       </c>
       <c r="E83" s="4">
-        <f t="shared" si="2"/>
         <v>0.19862326708706909</v>
       </c>
       <c r="F83" s="4">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -10750,11 +10586,9 @@
         <v>83</v>
       </c>
       <c r="E84" s="4">
-        <f t="shared" si="2"/>
         <v>0.17699991572986909</v>
       </c>
       <c r="F84" s="4">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -10769,11 +10603,9 @@
         <v>84</v>
       </c>
       <c r="E85" s="4">
-        <f t="shared" si="2"/>
         <v>0.17401669242165274</v>
       </c>
       <c r="F85" s="4">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -10788,11 +10620,9 @@
         <v>85</v>
       </c>
       <c r="E86" s="4">
-        <f t="shared" si="2"/>
         <v>0.17897168072787181</v>
       </c>
       <c r="F86" s="4">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -10807,11 +10637,9 @@
         <v>86</v>
       </c>
       <c r="E87" s="4">
-        <f t="shared" si="2"/>
         <v>0.18664984269575638</v>
       </c>
       <c r="F87" s="4">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -10826,11 +10654,9 @@
         <v>87</v>
       </c>
       <c r="E88" s="4">
-        <f t="shared" si="2"/>
         <v>0.20407524975863361</v>
       </c>
       <c r="F88" s="4">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -10845,11 +10671,9 @@
         <v>88</v>
       </c>
       <c r="E89" s="4">
-        <f t="shared" si="2"/>
         <v>0.25662387501109729</v>
       </c>
       <c r="F89" s="4">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -10864,11 +10688,9 @@
         <v>89</v>
       </c>
       <c r="E90" s="4">
-        <f t="shared" si="2"/>
         <v>0.32035294446078183</v>
       </c>
       <c r="F90" s="4">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -10883,11 +10705,9 @@
         <v>90</v>
       </c>
       <c r="E91" s="4">
-        <f t="shared" si="2"/>
         <v>0.37641065770929544</v>
       </c>
       <c r="F91" s="4">
-        <f t="shared" si="3"/>
         <v>4.6839078267416547E-2</v>
       </c>
     </row>
@@ -10902,11 +10722,9 @@
         <v>91</v>
       </c>
       <c r="E92" s="4">
-        <f t="shared" si="2"/>
         <v>0.4273904453624382</v>
       </c>
       <c r="F92" s="4">
-        <f t="shared" si="3"/>
         <v>0.23376496632893998</v>
       </c>
     </row>
@@ -10921,11 +10739,9 @@
         <v>92</v>
       </c>
       <c r="E93" s="4">
-        <f t="shared" si="2"/>
         <v>0.48226295817982084</v>
       </c>
       <c r="F93" s="4">
-        <f t="shared" si="3"/>
         <v>0.43496417999267639</v>
       </c>
     </row>
@@ -10940,11 +10756,9 @@
         <v>93</v>
       </c>
       <c r="E94" s="4">
-        <f t="shared" si="2"/>
         <v>0.54203440926291724</v>
       </c>
       <c r="F94" s="4">
-        <f t="shared" si="3"/>
         <v>0.65412616729736328</v>
       </c>
     </row>
@@ -10959,11 +10773,9 @@
         <v>94</v>
       </c>
       <c r="E95" s="4">
-        <f t="shared" si="2"/>
         <v>0.61000139063054537</v>
       </c>
       <c r="F95" s="4">
-        <f t="shared" si="3"/>
         <v>0.90333843231199984</v>
       </c>
     </row>
@@ -10978,11 +10790,9 @@
         <v>95</v>
       </c>
       <c r="E96" s="4">
-        <f t="shared" si="2"/>
         <v>0.6830845746127</v>
       </c>
       <c r="F96" s="4">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -10997,11 +10807,9 @@
         <v>96</v>
       </c>
       <c r="E97" s="4">
-        <f t="shared" si="2"/>
         <v>0.74788553064520003</v>
       </c>
       <c r="F97" s="4">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -11016,11 +10824,9 @@
         <v>97</v>
       </c>
       <c r="E98" s="4">
-        <f t="shared" si="2"/>
         <v>0.80046003515070008</v>
       </c>
       <c r="F98" s="4">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -11035,11 +10841,9 @@
         <v>98</v>
       </c>
       <c r="E99" s="4">
-        <f t="shared" si="2"/>
         <v>0.8380230990323182</v>
       </c>
       <c r="F99" s="4">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -11054,11 +10858,9 @@
         <v>99</v>
       </c>
       <c r="E100" s="4">
-        <f t="shared" si="2"/>
         <v>0.83902298320423629</v>
       </c>
       <c r="F100" s="4">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -11073,11 +10875,9 @@
         <v>100</v>
       </c>
       <c r="E101" s="4">
-        <f t="shared" si="2"/>
         <v>0.74188605221835457</v>
       </c>
       <c r="F101" s="4">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -11092,11 +10892,9 @@
         <v>101</v>
       </c>
       <c r="E102" s="4">
-        <f t="shared" si="2"/>
         <v>0.53949772227894177</v>
       </c>
       <c r="F102" s="4">
-        <f t="shared" si="3"/>
         <v>0.64482498168945313</v>
       </c>
     </row>
@@ -11111,11 +10909,9 @@
         <v>102</v>
       </c>
       <c r="E103" s="4">
-        <f t="shared" si="2"/>
         <v>0.38653373718261735</v>
       </c>
       <c r="F103" s="4">
-        <f t="shared" si="3"/>
         <v>8.3957036336263613E-2</v>
       </c>
     </row>
@@ -11130,11 +10926,9 @@
         <v>103</v>
       </c>
       <c r="E104" s="4">
-        <f t="shared" si="2"/>
         <v>0.32530502839521913</v>
       </c>
       <c r="F104" s="4">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11149,11 +10943,9 @@
         <v>104</v>
       </c>
       <c r="E105" s="4">
-        <f t="shared" si="2"/>
         <v>0.33338746157559457</v>
       </c>
       <c r="F105" s="4">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11168,11 +10960,9 @@
         <v>105</v>
       </c>
       <c r="E106" s="4">
-        <f t="shared" si="2"/>
         <v>0.32488077337091636</v>
       </c>
       <c r="F106" s="4">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11187,11 +10977,9 @@
         <v>106</v>
       </c>
       <c r="E107" s="4">
-        <f t="shared" si="2"/>
         <v>0.33334632353349181</v>
       </c>
       <c r="F107" s="4">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11206,11 +10994,9 @@
         <v>107</v>
       </c>
       <c r="E108" s="4">
-        <f t="shared" si="2"/>
         <v>0.34843735261396913</v>
       </c>
       <c r="F108" s="4">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11225,11 +11011,9 @@
         <v>108</v>
       </c>
       <c r="E109" s="4">
-        <f t="shared" si="2"/>
         <v>0.36125768314708362</v>
       </c>
       <c r="F109" s="4">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11244,11 +11028,9 @@
         <v>109</v>
       </c>
       <c r="E110" s="4">
-        <f t="shared" si="2"/>
         <v>0.34313752434470451</v>
       </c>
       <c r="F110" s="4">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11263,11 +11045,9 @@
         <v>110</v>
       </c>
       <c r="E111" s="4">
-        <f t="shared" si="2"/>
         <v>0.35090966658158729</v>
       </c>
       <c r="F111" s="4">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11282,11 +11062,9 @@
         <v>111</v>
       </c>
       <c r="E112" s="4">
-        <f t="shared" si="2"/>
         <v>0.36969184875488265</v>
       </c>
       <c r="F112" s="4">
-        <f t="shared" si="3"/>
         <v>2.2203445434569719E-2</v>
       </c>
     </row>
@@ -11301,11 +11079,9 @@
         <v>112</v>
       </c>
       <c r="E113" s="4">
-        <f t="shared" si="2"/>
         <v>0.40464834733442812</v>
       </c>
       <c r="F113" s="4">
-        <f t="shared" si="3"/>
         <v>0.15037727355956973</v>
       </c>
     </row>
@@ -11320,11 +11096,9 @@
         <v>113</v>
       </c>
       <c r="E114" s="4">
-        <f t="shared" si="2"/>
         <v>0.47990209406072459</v>
       </c>
       <c r="F114" s="4">
-        <f t="shared" si="3"/>
         <v>0.42630767822265686</v>
       </c>
     </row>
@@ -11339,11 +11113,9 @@
         <v>114</v>
       </c>
       <c r="E115" s="4">
-        <f t="shared" si="2"/>
         <v>0.53735013441606005</v>
       </c>
       <c r="F115" s="4">
-        <f t="shared" si="3"/>
         <v>0.63695049285888672</v>
       </c>
     </row>
@@ -11358,11 +11130,9 @@
         <v>115</v>
       </c>
       <c r="E116" s="4">
-        <f t="shared" si="2"/>
         <v>0.61415915055708181</v>
       </c>
       <c r="F116" s="4">
-        <f t="shared" si="3"/>
         <v>0.9185835520426332</v>
       </c>
     </row>
@@ -11377,11 +11147,9 @@
         <v>116</v>
       </c>
       <c r="E117" s="4">
-        <f t="shared" si="2"/>
         <v>0.68134472586891814</v>
       </c>
       <c r="F117" s="4">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -11396,11 +11164,9 @@
         <v>117</v>
       </c>
       <c r="E118" s="4">
-        <f t="shared" si="2"/>
         <v>0.70846757021817275</v>
       </c>
       <c r="F118" s="4">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -11415,11 +11181,9 @@
         <v>118</v>
       </c>
       <c r="E119" s="4">
-        <f t="shared" si="2"/>
         <v>0.70617554404519101</v>
       </c>
       <c r="F119" s="4">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -11434,11 +11198,9 @@
         <v>119</v>
       </c>
       <c r="E120" s="4">
-        <f t="shared" si="2"/>
         <v>0.68486187674782739</v>
       </c>
       <c r="F120" s="4">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -11453,11 +11215,9 @@
         <v>120</v>
       </c>
       <c r="E121" s="4">
-        <f t="shared" si="2"/>
         <v>0.66109362515536363</v>
       </c>
       <c r="F121" s="4">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -11472,11 +11232,9 @@
         <v>121</v>
       </c>
       <c r="E122" s="4">
-        <f t="shared" si="2"/>
         <v>0.64018995111639088</v>
       </c>
       <c r="F122" s="4">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -11491,11 +11249,9 @@
         <v>122</v>
       </c>
       <c r="E123" s="4">
-        <f t="shared" si="2"/>
         <v>0.62128136374733633</v>
       </c>
       <c r="F123" s="4">
-        <f t="shared" si="3"/>
         <v>0.94469833374023315</v>
       </c>
     </row>
@@ -11510,11 +11266,9 @@
         <v>123</v>
       </c>
       <c r="E124" s="4">
-        <f t="shared" si="2"/>
         <v>0.6144018173217819</v>
       </c>
       <c r="F124" s="4">
-        <f t="shared" si="3"/>
         <v>0.91947333017986688</v>
       </c>
     </row>
@@ -11529,11 +11283,9 @@
         <v>124</v>
       </c>
       <c r="E125" s="4">
-        <f t="shared" si="2"/>
         <v>0.62289125269110002</v>
       </c>
       <c r="F125" s="4">
-        <f t="shared" si="3"/>
         <v>0.95060125986736688</v>
       </c>
     </row>
@@ -11548,11 +11300,9 @@
         <v>125</v>
       </c>
       <c r="E126" s="4">
-        <f t="shared" si="2"/>
         <v>0.61303806304931818</v>
       </c>
       <c r="F126" s="4">
-        <f t="shared" si="3"/>
         <v>0.91447289784749997</v>
       </c>
     </row>
@@ -11567,11 +11317,9 @@
         <v>126</v>
       </c>
       <c r="E127" s="4">
-        <f t="shared" si="2"/>
         <v>0.5745849609375</v>
       </c>
       <c r="F127" s="4">
-        <f t="shared" si="3"/>
         <v>0.77347819010416663</v>
       </c>
     </row>
@@ -11586,11 +11334,9 @@
         <v>127</v>
       </c>
       <c r="E128" s="4">
-        <f t="shared" si="2"/>
         <v>0.54650341380726364</v>
       </c>
       <c r="F128" s="4">
-        <f t="shared" si="3"/>
         <v>0.67051251729330019</v>
       </c>
     </row>
@@ -11605,11 +11351,9 @@
         <v>128</v>
       </c>
       <c r="E129" s="4">
-        <f t="shared" si="2"/>
         <v>0.5246630581942473</v>
       </c>
       <c r="F129" s="4">
-        <f t="shared" si="3"/>
         <v>0.59043121337890681</v>
       </c>
     </row>
@@ -11624,11 +11368,9 @@
         <v>129</v>
       </c>
       <c r="E130" s="4">
-        <f t="shared" si="2"/>
         <v>0.54622381383722718</v>
       </c>
       <c r="F130" s="4">
-        <f t="shared" si="3"/>
         <v>0.66948731740316647</v>
       </c>
     </row>
@@ -11643,11 +11385,9 @@
         <v>130</v>
       </c>
       <c r="E131" s="4">
-        <f t="shared" ref="E131:E194" si="4">IF(B131&gt;$K$3,0,IF(B131&lt;$I$3,0,IF(B131&gt;$J$3,1,(B131-$I$3)/($J$3-$I$3))))</f>
         <v>0.54600152102383637</v>
       </c>
       <c r="F131" s="4">
-        <f t="shared" ref="F131:F194" si="5">IF(B131&gt;$K$4,0,IF(B131&lt;$I$4,0,IF(B131&gt;$J$4,1,(B131-$I$4)/($J$4-$I$4))))</f>
         <v>0.66867224375406664</v>
       </c>
     </row>
@@ -11662,11 +11402,9 @@
         <v>131</v>
       </c>
       <c r="E132" s="4">
-        <f t="shared" si="4"/>
         <v>0.53310038826682371</v>
       </c>
       <c r="F132" s="4">
-        <f t="shared" si="5"/>
         <v>0.62136809031168683</v>
       </c>
     </row>
@@ -11681,11 +11419,9 @@
         <v>132</v>
       </c>
       <c r="E133" s="4">
-        <f t="shared" si="4"/>
         <v>0.50581611286510086</v>
       </c>
       <c r="F133" s="4">
-        <f t="shared" si="5"/>
         <v>0.52132574717203661</v>
       </c>
     </row>
@@ -11700,11 +11436,9 @@
         <v>133</v>
       </c>
       <c r="E134" s="4">
-        <f t="shared" si="4"/>
         <v>0.44628862901167454</v>
       </c>
       <c r="F134" s="4">
-        <f t="shared" si="5"/>
         <v>0.3030583063761399</v>
       </c>
     </row>
@@ -11719,11 +11453,9 @@
         <v>134</v>
       </c>
       <c r="E135" s="4">
-        <f t="shared" si="4"/>
         <v>0.36637046120383537</v>
       </c>
       <c r="F135" s="4">
-        <f t="shared" si="5"/>
         <v>1.0025024414063092E-2</v>
       </c>
     </row>
@@ -11738,11 +11470,9 @@
         <v>135</v>
       </c>
       <c r="E136" s="4">
-        <f t="shared" si="4"/>
         <v>0.31427452780983633</v>
       </c>
       <c r="F136" s="4">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11757,11 +11487,9 @@
         <v>136</v>
       </c>
       <c r="E137" s="4">
-        <f t="shared" si="4"/>
         <v>0.31419649991122184</v>
       </c>
       <c r="F137" s="4">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11776,11 +11504,9 @@
         <v>137</v>
       </c>
       <c r="E138" s="4">
-        <f t="shared" si="4"/>
         <v>0.33648300170898454</v>
       </c>
       <c r="F138" s="4">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11795,11 +11521,9 @@
         <v>138</v>
       </c>
       <c r="E139" s="4">
-        <f t="shared" si="4"/>
         <v>0.35021326758644822</v>
       </c>
       <c r="F139" s="4">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11814,11 +11538,9 @@
         <v>139</v>
       </c>
       <c r="E140" s="4">
-        <f t="shared" si="4"/>
         <v>0.32859126004305728</v>
       </c>
       <c r="F140" s="4">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11833,11 +11555,9 @@
         <v>140</v>
       </c>
       <c r="E141" s="4">
-        <f t="shared" si="4"/>
         <v>0.28519972887906186</v>
       </c>
       <c r="F141" s="4">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11852,11 +11572,9 @@
         <v>141</v>
       </c>
       <c r="E142" s="4">
-        <f t="shared" si="4"/>
         <v>0.24425831708041087</v>
       </c>
       <c r="F142" s="4">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11871,11 +11589,9 @@
         <v>142</v>
       </c>
       <c r="E143" s="4">
-        <f t="shared" si="4"/>
         <v>0.22084032405506457</v>
       </c>
       <c r="F143" s="4">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11890,11 +11606,9 @@
         <v>143</v>
       </c>
       <c r="E144" s="4">
-        <f t="shared" si="4"/>
         <v>0.24362993240356454</v>
       </c>
       <c r="F144" s="4">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11909,11 +11623,9 @@
         <v>144</v>
       </c>
       <c r="E145" s="4">
-        <f t="shared" si="4"/>
         <v>0.2969112396240236</v>
       </c>
       <c r="F145" s="4">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11928,11 +11640,9 @@
         <v>145</v>
       </c>
       <c r="E146" s="4">
-        <f t="shared" si="4"/>
         <v>0.34048037095503364</v>
       </c>
       <c r="F146" s="4">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11947,11 +11657,9 @@
         <v>146</v>
       </c>
       <c r="E147" s="4">
-        <f t="shared" si="4"/>
         <v>0.37497347051447089</v>
       </c>
       <c r="F147" s="4">
-        <f t="shared" si="5"/>
         <v>4.1569391886393227E-2</v>
       </c>
     </row>
@@ -11966,11 +11674,9 @@
         <v>147</v>
       </c>
       <c r="E148" s="4">
-        <f t="shared" si="4"/>
         <v>0.38541082902388185</v>
       </c>
       <c r="F148" s="4">
-        <f t="shared" si="5"/>
         <v>7.9839706420900214E-2</v>
       </c>
     </row>
@@ -11985,11 +11691,9 @@
         <v>148</v>
       </c>
       <c r="E149" s="4">
-        <f t="shared" si="4"/>
         <v>0.37292723222212359</v>
       </c>
       <c r="F149" s="4">
-        <f t="shared" si="5"/>
         <v>3.4066518147786461E-2</v>
       </c>
     </row>
@@ -12004,11 +11708,9 @@
         <v>149</v>
       </c>
       <c r="E150" s="4">
-        <f t="shared" si="4"/>
         <v>0.35965997522527543</v>
       </c>
       <c r="F150" s="4">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12023,11 +11725,9 @@
         <v>150</v>
       </c>
       <c r="E151" s="4">
-        <f t="shared" si="4"/>
         <v>0.34175161881880367</v>
       </c>
       <c r="F151" s="4">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12042,11 +11742,9 @@
         <v>151</v>
       </c>
       <c r="E152" s="4">
-        <f t="shared" si="4"/>
         <v>0.33724104274403</v>
       </c>
       <c r="F152" s="4">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12061,11 +11759,9 @@
         <v>152</v>
       </c>
       <c r="E153" s="4">
-        <f t="shared" si="4"/>
         <v>0.35431146621704096</v>
       </c>
       <c r="F153" s="4">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12080,11 +11776,9 @@
         <v>153</v>
       </c>
       <c r="E154" s="4">
-        <f t="shared" si="4"/>
         <v>0.39667510986328092</v>
       </c>
       <c r="F154" s="4">
-        <f t="shared" si="5"/>
         <v>0.12114206949869673</v>
       </c>
     </row>
@@ -12099,11 +11793,9 @@
         <v>154</v>
       </c>
       <c r="E155" s="4">
-        <f t="shared" si="4"/>
         <v>0.43973289836536722</v>
       </c>
       <c r="F155" s="4">
-        <f t="shared" si="5"/>
         <v>0.27902062733967981</v>
       </c>
     </row>
@@ -12118,11 +11810,9 @@
         <v>155</v>
       </c>
       <c r="E156" s="4">
-        <f t="shared" si="4"/>
         <v>0.47097474878484552</v>
       </c>
       <c r="F156" s="4">
-        <f t="shared" si="5"/>
         <v>0.39357407887776691</v>
       </c>
     </row>
@@ -12137,11 +11827,9 @@
         <v>156</v>
       </c>
       <c r="E157" s="4">
-        <f t="shared" si="4"/>
         <v>0.48536586761474643</v>
       </c>
       <c r="F157" s="4">
-        <f t="shared" si="5"/>
         <v>0.44634151458740351</v>
       </c>
     </row>
@@ -12156,11 +11844,9 @@
         <v>157</v>
       </c>
       <c r="E158" s="4">
-        <f t="shared" si="4"/>
         <v>0.4769824634898791</v>
       </c>
       <c r="F158" s="4">
-        <f t="shared" si="5"/>
         <v>0.4156023661295567</v>
       </c>
     </row>
@@ -12175,11 +11861,9 @@
         <v>158</v>
       </c>
       <c r="E159" s="4">
-        <f t="shared" si="4"/>
         <v>0.46701752055775003</v>
       </c>
       <c r="F159" s="4">
-        <f t="shared" si="5"/>
         <v>0.37906424204508343</v>
       </c>
     </row>
@@ -12194,11 +11878,9 @@
         <v>159</v>
       </c>
       <c r="E160" s="4">
-        <f t="shared" si="4"/>
         <v>0.46188961375843363</v>
       </c>
       <c r="F160" s="4">
-        <f t="shared" si="5"/>
         <v>0.36026191711425665</v>
       </c>
     </row>
@@ -12213,11 +11895,9 @@
         <v>160</v>
       </c>
       <c r="E161" s="4">
-        <f t="shared" si="4"/>
         <v>0.4643065712668682</v>
       </c>
       <c r="F161" s="4">
-        <f t="shared" si="5"/>
         <v>0.36912409464518348</v>
       </c>
     </row>
@@ -12232,11 +11912,9 @@
         <v>161</v>
       </c>
       <c r="E162" s="4">
-        <f t="shared" si="4"/>
         <v>0.47389949451793356</v>
       </c>
       <c r="F162" s="4">
-        <f t="shared" si="5"/>
         <v>0.40429814656575641</v>
       </c>
     </row>
@@ -12251,11 +11929,9 @@
         <v>162</v>
       </c>
       <c r="E163" s="4">
-        <f t="shared" si="4"/>
         <v>0.50134355371648631</v>
       </c>
       <c r="F163" s="4">
-        <f t="shared" si="5"/>
         <v>0.50492636362711651</v>
       </c>
     </row>
@@ -12270,11 +11946,9 @@
         <v>163</v>
       </c>
       <c r="E164" s="4">
-        <f t="shared" si="4"/>
         <v>0.5514636473222182</v>
       </c>
       <c r="F164" s="4">
-        <f t="shared" si="5"/>
         <v>0.68870004018146658</v>
       </c>
     </row>
@@ -12289,11 +11963,9 @@
         <v>164</v>
       </c>
       <c r="E165" s="4">
-        <f t="shared" si="4"/>
         <v>0.61492018266157267</v>
       </c>
       <c r="F165" s="4">
-        <f t="shared" si="5"/>
         <v>0.92137400309243311</v>
       </c>
     </row>
@@ -12308,11 +11980,9 @@
         <v>165</v>
       </c>
       <c r="E166" s="4">
-        <f t="shared" si="4"/>
         <v>0.67391534285111809</v>
       </c>
       <c r="F166" s="4">
-        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -12327,11 +11997,9 @@
         <v>166</v>
       </c>
       <c r="E167" s="4">
-        <f t="shared" si="4"/>
         <v>0.71872780539772729</v>
       </c>
       <c r="F167" s="4">
-        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -12346,11 +12014,9 @@
         <v>167</v>
       </c>
       <c r="E168" s="4">
-        <f t="shared" si="4"/>
         <v>0.74431696805087277</v>
       </c>
       <c r="F168" s="4">
-        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -12365,11 +12031,9 @@
         <v>168</v>
       </c>
       <c r="E169" s="4">
-        <f t="shared" si="4"/>
         <v>0.76264381408691828</v>
       </c>
       <c r="F169" s="4">
-        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -12384,11 +12048,9 @@
         <v>169</v>
       </c>
       <c r="E170" s="4">
-        <f t="shared" si="4"/>
         <v>0.78150731867010004</v>
       </c>
       <c r="F170" s="4">
-        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -12403,11 +12065,9 @@
         <v>170</v>
       </c>
       <c r="E171" s="4">
-        <f t="shared" si="4"/>
         <v>0.79661620746959094</v>
       </c>
       <c r="F171" s="4">
-        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -12422,11 +12082,9 @@
         <v>171</v>
       </c>
       <c r="E172" s="4">
-        <f t="shared" si="4"/>
         <v>0.79131811315362732</v>
       </c>
       <c r="F172" s="4">
-        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -12441,11 +12099,9 @@
         <v>172</v>
       </c>
       <c r="E173" s="4">
-        <f t="shared" si="4"/>
         <v>0.76038811423561825</v>
       </c>
       <c r="F173" s="4">
-        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -12460,11 +12116,9 @@
         <v>173</v>
       </c>
       <c r="E174" s="4">
-        <f t="shared" si="4"/>
         <v>0.71932307156649078</v>
       </c>
       <c r="F174" s="4">
-        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -12479,11 +12133,9 @@
         <v>174</v>
       </c>
       <c r="E175" s="4">
-        <f t="shared" si="4"/>
         <v>0.66907059062610907</v>
       </c>
       <c r="F175" s="4">
-        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -12498,11 +12150,9 @@
         <v>175</v>
       </c>
       <c r="E176" s="4">
-        <f t="shared" si="4"/>
         <v>0.6161584854126001</v>
       </c>
       <c r="F176" s="4">
-        <f t="shared" si="5"/>
         <v>0.92591444651286692</v>
       </c>
     </row>
@@ -12517,11 +12167,9 @@
         <v>176</v>
       </c>
       <c r="E177" s="4">
-        <f t="shared" si="4"/>
         <v>0.55975575880570905</v>
       </c>
       <c r="F177" s="4">
-        <f t="shared" si="5"/>
         <v>0.71910444895426673</v>
       </c>
     </row>
@@ -12536,11 +12184,9 @@
         <v>177</v>
       </c>
       <c r="E178" s="4">
-        <f t="shared" si="4"/>
         <v>0.49667176333340729</v>
       </c>
       <c r="F178" s="4">
-        <f t="shared" si="5"/>
         <v>0.48779646555582684</v>
       </c>
     </row>
@@ -12555,11 +12201,9 @@
         <v>178</v>
       </c>
       <c r="E179" s="4">
-        <f t="shared" si="4"/>
         <v>0.44499423287131551</v>
       </c>
       <c r="F179" s="4">
-        <f t="shared" si="5"/>
         <v>0.29831218719482361</v>
       </c>
     </row>
@@ -12574,11 +12218,9 @@
         <v>179</v>
       </c>
       <c r="E180" s="4">
-        <f t="shared" si="4"/>
         <v>0.40918081456964633</v>
       </c>
       <c r="F180" s="4">
-        <f t="shared" si="5"/>
         <v>0.16699632008870324</v>
       </c>
     </row>
@@ -12593,11 +12235,9 @@
         <v>180</v>
       </c>
       <c r="E181" s="4">
-        <f t="shared" si="4"/>
         <v>0.39571528001265094</v>
       </c>
       <c r="F181" s="4">
-        <f t="shared" si="5"/>
         <v>0.11762269337972005</v>
       </c>
     </row>
@@ -12612,11 +12252,9 @@
         <v>181</v>
       </c>
       <c r="E182" s="4">
-        <f t="shared" si="4"/>
         <v>0.38962251489812727</v>
       </c>
       <c r="F182" s="4">
-        <f t="shared" si="5"/>
         <v>9.528255462646662E-2</v>
       </c>
     </row>
@@ -12631,11 +12269,9 @@
         <v>182</v>
       </c>
       <c r="E183" s="4">
-        <f t="shared" si="4"/>
         <v>0.37846235795454547</v>
       </c>
       <c r="F183" s="4">
-        <f t="shared" si="5"/>
         <v>5.4361979166666664E-2</v>
       </c>
     </row>
@@ -12650,11 +12286,9 @@
         <v>183</v>
       </c>
       <c r="E184" s="4">
-        <f t="shared" si="4"/>
         <v>0.35817393389615176</v>
       </c>
       <c r="F184" s="4">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12669,11 +12303,9 @@
         <v>184</v>
       </c>
       <c r="E185" s="4">
-        <f t="shared" si="4"/>
         <v>0.35914993286132818</v>
       </c>
       <c r="F185" s="4">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12688,11 +12320,9 @@
         <v>185</v>
       </c>
       <c r="E186" s="4">
-        <f t="shared" si="4"/>
         <v>0.34528103741732541</v>
       </c>
       <c r="F186" s="4">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12707,11 +12337,9 @@
         <v>186</v>
       </c>
       <c r="E187" s="4">
-        <f t="shared" si="4"/>
         <v>0.31463232907381911</v>
       </c>
       <c r="F187" s="4">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12726,11 +12354,9 @@
         <v>187</v>
       </c>
       <c r="E188" s="4">
-        <f t="shared" si="4"/>
         <v>0.28588225624778096</v>
       </c>
       <c r="F188" s="4">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12745,11 +12371,9 @@
         <v>188</v>
       </c>
       <c r="E189" s="4">
-        <f t="shared" si="4"/>
         <v>0.27721478722312276</v>
       </c>
       <c r="F189" s="4">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12764,11 +12388,9 @@
         <v>189</v>
       </c>
       <c r="E190" s="4">
-        <f t="shared" si="4"/>
         <v>0.29444794221357906</v>
       </c>
       <c r="F190" s="4">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12783,11 +12405,9 @@
         <v>190</v>
       </c>
       <c r="E191" s="4">
-        <f t="shared" si="4"/>
         <v>0.30051101337779634</v>
       </c>
       <c r="F191" s="4">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12802,11 +12422,9 @@
         <v>191</v>
       </c>
       <c r="E192" s="4">
-        <f t="shared" si="4"/>
         <v>0.29669046401977545</v>
       </c>
       <c r="F192" s="4">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12821,11 +12439,9 @@
         <v>192</v>
       </c>
       <c r="E193" s="4">
-        <f t="shared" si="4"/>
         <v>0.28278428857976723</v>
       </c>
       <c r="F193" s="4">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12840,11 +12456,9 @@
         <v>193</v>
       </c>
       <c r="E194" s="4">
-        <f t="shared" si="4"/>
         <v>0.25131104209206362</v>
       </c>
       <c r="F194" s="4">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12859,11 +12473,9 @@
         <v>194</v>
       </c>
       <c r="E195" s="4">
-        <f t="shared" ref="E195:E258" si="6">IF(B195&gt;$K$3,0,IF(B195&lt;$I$3,0,IF(B195&gt;$J$3,1,(B195-$I$3)/($J$3-$I$3))))</f>
         <v>0.20903088829734093</v>
       </c>
       <c r="F195" s="4">
-        <f t="shared" ref="F195:F258" si="7">IF(B195&gt;$K$4,0,IF(B195&lt;$I$4,0,IF(B195&gt;$J$4,1,(B195-$I$4)/($J$4-$I$4))))</f>
         <v>0</v>
       </c>
     </row>
@@ -12878,11 +12490,9 @@
         <v>195</v>
       </c>
       <c r="E196" s="4">
-        <f t="shared" si="6"/>
         <v>0.16428531299937815</v>
       </c>
       <c r="F196" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -12897,11 +12507,9 @@
         <v>196</v>
       </c>
       <c r="E197" s="4">
-        <f t="shared" si="6"/>
         <v>0.11843906749378542</v>
       </c>
       <c r="F197" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -12916,11 +12524,9 @@
         <v>197</v>
       </c>
       <c r="E198" s="4">
-        <f t="shared" si="6"/>
         <v>8.2125056873668167E-2</v>
       </c>
       <c r="F198" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -12935,11 +12541,9 @@
         <v>198</v>
       </c>
       <c r="E199" s="4">
-        <f t="shared" si="6"/>
         <v>5.5854667316783638E-2</v>
       </c>
       <c r="F199" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -12954,11 +12558,9 @@
         <v>199</v>
       </c>
       <c r="E200" s="4">
-        <f t="shared" si="6"/>
         <v>3.9665092121470895E-2</v>
       </c>
       <c r="F200" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -12973,11 +12575,9 @@
         <v>200</v>
       </c>
       <c r="E201" s="4">
-        <f t="shared" si="6"/>
         <v>3.2916112379594527E-2</v>
       </c>
       <c r="F201" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -12992,11 +12592,9 @@
         <v>201</v>
       </c>
       <c r="E202" s="4">
-        <f t="shared" si="6"/>
         <v>3.2464200800115493E-2</v>
       </c>
       <c r="F202" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13011,11 +12609,9 @@
         <v>202</v>
       </c>
       <c r="E203" s="4">
-        <f t="shared" si="6"/>
         <v>4.7612537037242705E-2</v>
       </c>
       <c r="F203" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13030,11 +12626,9 @@
         <v>203</v>
       </c>
       <c r="E204" s="4">
-        <f t="shared" si="6"/>
         <v>6.8432764573530883E-2</v>
       </c>
       <c r="F204" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13049,11 +12643,9 @@
         <v>204</v>
       </c>
       <c r="E205" s="4">
-        <f t="shared" si="6"/>
         <v>8.2455851814963607E-2</v>
       </c>
       <c r="F205" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13068,11 +12660,9 @@
         <v>205</v>
       </c>
       <c r="E206" s="4">
-        <f t="shared" si="6"/>
         <v>9.4818245280872696E-2</v>
       </c>
       <c r="F206" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13087,11 +12677,9 @@
         <v>206</v>
       </c>
       <c r="E207" s="4">
-        <f t="shared" si="6"/>
         <v>0.10449405149980001</v>
       </c>
       <c r="F207" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13106,11 +12694,9 @@
         <v>207</v>
       </c>
       <c r="E208" s="4">
-        <f t="shared" si="6"/>
         <v>0.11459393934770089</v>
       </c>
       <c r="F208" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13125,11 +12711,9 @@
         <v>208</v>
       </c>
       <c r="E209" s="4">
-        <f t="shared" si="6"/>
         <v>0.12280754609541451</v>
       </c>
       <c r="F209" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13144,11 +12728,9 @@
         <v>209</v>
       </c>
       <c r="E210" s="4">
-        <f t="shared" si="6"/>
         <v>0.13615304773504092</v>
       </c>
       <c r="F210" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13163,11 +12745,9 @@
         <v>210</v>
       </c>
       <c r="E211" s="4">
-        <f t="shared" si="6"/>
         <v>0.14832219210537997</v>
       </c>
       <c r="F211" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13182,11 +12762,9 @@
         <v>211</v>
       </c>
       <c r="E212" s="4">
-        <f t="shared" si="6"/>
         <v>0.16100077195600998</v>
       </c>
       <c r="F212" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13201,11 +12779,9 @@
         <v>212</v>
       </c>
       <c r="E213" s="4">
-        <f t="shared" si="6"/>
         <v>0.18165375969626726</v>
       </c>
       <c r="F213" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13220,11 +12796,9 @@
         <v>213</v>
       </c>
       <c r="E214" s="4">
-        <f t="shared" si="6"/>
         <v>0.20018807324496182</v>
       </c>
       <c r="F214" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13239,11 +12813,9 @@
         <v>214</v>
       </c>
       <c r="E215" s="4">
-        <f t="shared" si="6"/>
         <v>0.19084020094438001</v>
       </c>
       <c r="F215" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13258,11 +12830,9 @@
         <v>215</v>
       </c>
       <c r="E216" s="4">
-        <f t="shared" si="6"/>
         <v>0.16901380365545091</v>
       </c>
       <c r="F216" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13277,11 +12847,9 @@
         <v>216</v>
       </c>
       <c r="E217" s="4">
-        <f t="shared" si="6"/>
         <v>0.14725234291770273</v>
       </c>
       <c r="F217" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13296,11 +12864,9 @@
         <v>217</v>
       </c>
       <c r="E218" s="4">
-        <f t="shared" si="6"/>
         <v>0.12612962722778362</v>
       </c>
       <c r="F218" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13315,11 +12881,9 @@
         <v>218</v>
       </c>
       <c r="E219" s="4">
-        <f t="shared" si="6"/>
         <v>0.10462587529962729</v>
       </c>
       <c r="F219" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13334,11 +12898,9 @@
         <v>219</v>
       </c>
       <c r="E220" s="4">
-        <f t="shared" si="6"/>
         <v>7.2746363553133631E-2</v>
       </c>
       <c r="F220" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13353,11 +12915,9 @@
         <v>220</v>
       </c>
       <c r="E221" s="4">
-        <f t="shared" si="6"/>
         <v>4.003650491887905E-2</v>
       </c>
       <c r="F221" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13372,11 +12932,9 @@
         <v>221</v>
       </c>
       <c r="E222" s="4">
-        <f t="shared" si="6"/>
         <v>2.5069756941361779E-2</v>
       </c>
       <c r="F222" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13391,11 +12949,9 @@
         <v>222</v>
       </c>
       <c r="E223" s="4">
-        <f t="shared" si="6"/>
         <v>1.8635186282070879E-2</v>
       </c>
       <c r="F223" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13410,11 +12966,9 @@
         <v>223</v>
       </c>
       <c r="E224" s="4">
-        <f t="shared" si="6"/>
         <v>7.707812569358213E-3</v>
       </c>
       <c r="F224" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13429,11 +12983,9 @@
         <v>224</v>
       </c>
       <c r="E225" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F225" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13448,11 +13000,9 @@
         <v>225</v>
       </c>
       <c r="E226" s="4">
-        <f t="shared" si="6"/>
         <v>1.3950174505059965E-2</v>
       </c>
       <c r="F226" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13467,11 +13017,9 @@
         <v>226</v>
       </c>
       <c r="E227" s="4">
-        <f t="shared" si="6"/>
         <v>4.1653546420010894E-2</v>
       </c>
       <c r="F227" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13486,11 +13034,9 @@
         <v>227</v>
       </c>
       <c r="E228" s="4">
-        <f t="shared" si="6"/>
         <v>6.298862804066091E-2</v>
       </c>
       <c r="F228" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13505,11 +13051,9 @@
         <v>228</v>
       </c>
       <c r="E229" s="4">
-        <f t="shared" si="6"/>
         <v>7.5558532368052767E-2</v>
       </c>
       <c r="F229" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13524,11 +13068,9 @@
         <v>229</v>
       </c>
       <c r="E230" s="4">
-        <f t="shared" si="6"/>
         <v>8.5740349509499131E-2</v>
       </c>
       <c r="F230" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13543,11 +13085,9 @@
         <v>230</v>
       </c>
       <c r="E231" s="4">
-        <f t="shared" si="6"/>
         <v>9.8014007915150039E-2</v>
       </c>
       <c r="F231" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13562,11 +13102,9 @@
         <v>231</v>
       </c>
       <c r="E232" s="4">
-        <f t="shared" si="6"/>
         <v>0.12292991984974271</v>
       </c>
       <c r="F232" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13581,11 +13119,9 @@
         <v>232</v>
       </c>
       <c r="E233" s="4">
-        <f t="shared" si="6"/>
         <v>0.17419143156571823</v>
       </c>
       <c r="F233" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13600,11 +13136,9 @@
         <v>233</v>
       </c>
       <c r="E234" s="4">
-        <f t="shared" si="6"/>
         <v>0.24756093458695821</v>
       </c>
       <c r="F234" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13619,11 +13153,9 @@
         <v>234</v>
       </c>
       <c r="E235" s="4">
-        <f t="shared" si="6"/>
         <v>0.32545388828624361</v>
       </c>
       <c r="F235" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13638,11 +13170,9 @@
         <v>235</v>
       </c>
       <c r="E236" s="4">
-        <f t="shared" si="6"/>
         <v>0.39652234857732632</v>
       </c>
       <c r="F236" s="4">
-        <f t="shared" si="7"/>
         <v>0.12058194478352983</v>
       </c>
     </row>
@@ -13657,11 +13187,9 @@
         <v>236</v>
       </c>
       <c r="E237" s="4">
-        <f t="shared" si="6"/>
         <v>0.45465547388250177</v>
       </c>
       <c r="F237" s="4">
-        <f t="shared" si="7"/>
         <v>0.33373673756917316</v>
       </c>
     </row>
@@ -13676,11 +13204,9 @@
         <v>237</v>
       </c>
       <c r="E238" s="4">
-        <f t="shared" si="6"/>
         <v>0.50179134715687179</v>
       </c>
       <c r="F238" s="4">
-        <f t="shared" si="7"/>
         <v>0.50656827290852979</v>
       </c>
     </row>
@@ -13695,11 +13221,9 @@
         <v>238</v>
       </c>
       <c r="E239" s="4">
-        <f t="shared" si="6"/>
         <v>0.51545576615767097</v>
       </c>
       <c r="F239" s="4">
-        <f t="shared" si="7"/>
         <v>0.55667114257812678</v>
       </c>
     </row>
@@ -13714,11 +13238,9 @@
         <v>239</v>
       </c>
       <c r="E240" s="4">
-        <f t="shared" si="6"/>
         <v>0.51721113378351369</v>
       </c>
       <c r="F240" s="4">
-        <f t="shared" si="7"/>
         <v>0.56310749053955023</v>
       </c>
     </row>
@@ -13733,11 +13255,9 @@
         <v>240</v>
       </c>
       <c r="E241" s="4">
-        <f t="shared" si="6"/>
         <v>0.52485370635986361</v>
       </c>
       <c r="F241" s="4">
-        <f t="shared" si="7"/>
         <v>0.59113025665283325</v>
       </c>
     </row>
@@ -13752,11 +13272,9 @@
         <v>241</v>
       </c>
       <c r="E242" s="4">
-        <f t="shared" si="6"/>
         <v>0.51300438967618089</v>
       </c>
       <c r="F242" s="4">
-        <f t="shared" si="7"/>
         <v>0.54768276214599665</v>
       </c>
     </row>
@@ -13771,11 +13289,9 @@
         <v>242</v>
       </c>
       <c r="E243" s="4">
-        <f t="shared" si="6"/>
         <v>0.49189480868252827</v>
       </c>
       <c r="F243" s="4">
-        <f t="shared" si="7"/>
         <v>0.47028096516927026</v>
       </c>
     </row>
@@ -13790,11 +13306,9 @@
         <v>243</v>
       </c>
       <c r="E244" s="4">
-        <f t="shared" si="6"/>
         <v>0.47428469224409642</v>
       </c>
       <c r="F244" s="4">
-        <f t="shared" si="7"/>
         <v>0.40571053822835346</v>
       </c>
     </row>
@@ -13809,11 +13323,9 @@
         <v>244</v>
       </c>
       <c r="E245" s="4">
-        <f t="shared" si="6"/>
         <v>0.48492726412686449</v>
       </c>
       <c r="F245" s="4">
-        <f t="shared" si="7"/>
         <v>0.44473330179850318</v>
       </c>
     </row>
@@ -13828,11 +13340,9 @@
         <v>245</v>
       </c>
       <c r="E246" s="4">
-        <f t="shared" si="6"/>
         <v>0.50179403478449092</v>
       </c>
       <c r="F246" s="4">
-        <f t="shared" si="7"/>
         <v>0.50657812754313325</v>
       </c>
     </row>
@@ -13847,11 +13357,9 @@
         <v>246</v>
       </c>
       <c r="E247" s="4">
-        <f t="shared" si="6"/>
         <v>0.51432132720947266</v>
       </c>
       <c r="F247" s="4">
-        <f t="shared" si="7"/>
         <v>0.55251153310139978</v>
       </c>
     </row>
@@ -13866,11 +13374,9 @@
         <v>247</v>
       </c>
       <c r="E248" s="4">
-        <f t="shared" si="6"/>
         <v>0.52634603326970908</v>
       </c>
       <c r="F248" s="4">
-        <f t="shared" si="7"/>
         <v>0.59660212198893348</v>
       </c>
     </row>
@@ -13885,11 +13391,9 @@
         <v>248</v>
       </c>
       <c r="E249" s="4">
-        <f t="shared" si="6"/>
         <v>0.53450870513916005</v>
       </c>
       <c r="F249" s="4">
-        <f t="shared" si="7"/>
         <v>0.62653191884358661</v>
       </c>
     </row>
@@ -13904,11 +13408,9 @@
         <v>249</v>
       </c>
       <c r="E250" s="4">
-        <f t="shared" si="6"/>
         <v>0.53407044844193907</v>
       </c>
       <c r="F250" s="4">
-        <f t="shared" si="7"/>
         <v>0.6249249776204433</v>
       </c>
     </row>
@@ -13923,11 +13425,9 @@
         <v>250</v>
       </c>
       <c r="E251" s="4">
-        <f t="shared" si="6"/>
         <v>0.50266352566805717</v>
       </c>
       <c r="F251" s="4">
-        <f t="shared" si="7"/>
         <v>0.50976626078287646</v>
       </c>
     </row>
@@ -13942,11 +13442,9 @@
         <v>251</v>
       </c>
       <c r="E252" s="4">
-        <f t="shared" si="6"/>
         <v>0.45214002782648277</v>
       </c>
       <c r="F252" s="4">
-        <f t="shared" si="7"/>
         <v>0.32451343536377014</v>
       </c>
     </row>
@@ -13961,11 +13459,9 @@
         <v>252</v>
       </c>
       <c r="E253" s="4">
-        <f t="shared" si="6"/>
         <v>0.41304406252774356</v>
       </c>
       <c r="F253" s="4">
-        <f t="shared" si="7"/>
         <v>0.18116156260172644</v>
       </c>
     </row>
@@ -13980,11 +13476,9 @@
         <v>253</v>
       </c>
       <c r="E254" s="4">
-        <f t="shared" si="6"/>
         <v>0.39487370577725545</v>
       </c>
       <c r="F254" s="4">
-        <f t="shared" si="7"/>
         <v>0.11453692118327001</v>
       </c>
     </row>
@@ -13999,11 +13493,9 @@
         <v>254</v>
       </c>
       <c r="E255" s="4">
-        <f t="shared" si="6"/>
         <v>0.39383680170232632</v>
       </c>
       <c r="F255" s="4">
-        <f t="shared" si="7"/>
         <v>0.11073493957519649</v>
       </c>
     </row>
@@ -14018,11 +13510,9 @@
         <v>255</v>
       </c>
       <c r="E256" s="4">
-        <f t="shared" si="6"/>
         <v>0.41163236444646628</v>
       </c>
       <c r="F256" s="4">
-        <f t="shared" si="7"/>
         <v>0.17598533630370974</v>
       </c>
     </row>
@@ -14037,11 +13527,9 @@
         <v>256</v>
       </c>
       <c r="E257" s="4">
-        <f t="shared" si="6"/>
         <v>0.44572370702570185</v>
       </c>
       <c r="F257" s="4">
-        <f t="shared" si="7"/>
         <v>0.30098692576090674</v>
       </c>
     </row>
@@ -14056,11 +13544,9 @@
         <v>257</v>
       </c>
       <c r="E258" s="4">
-        <f t="shared" si="6"/>
         <v>0.44043835726651276</v>
       </c>
       <c r="F258" s="4">
-        <f t="shared" si="7"/>
         <v>0.28160730997721356</v>
       </c>
     </row>
@@ -14075,11 +13561,9 @@
         <v>258</v>
       </c>
       <c r="E259" s="4">
-        <f t="shared" ref="E259:E322" si="8">IF(B259&gt;$K$3,0,IF(B259&lt;$I$3,0,IF(B259&gt;$J$3,1,(B259-$I$3)/($J$3-$I$3))))</f>
         <v>0.40973671999844635</v>
       </c>
       <c r="F259" s="4">
-        <f t="shared" ref="F259:F322" si="9">IF(B259&gt;$K$4,0,IF(B259&lt;$I$4,0,IF(B259&gt;$J$4,1,(B259-$I$4)/($J$4-$I$4))))</f>
         <v>0.16903463999430338</v>
       </c>
     </row>
@@ -14094,11 +13578,9 @@
         <v>259</v>
       </c>
       <c r="E260" s="4">
-        <f t="shared" si="8"/>
         <v>0.35907038775357364</v>
       </c>
       <c r="F260" s="4">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -14113,11 +13595,9 @@
         <v>260</v>
       </c>
       <c r="E261" s="4">
-        <f t="shared" si="8"/>
         <v>0.30464948307384182</v>
       </c>
       <c r="F261" s="4">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -14132,11 +13612,9 @@
         <v>261</v>
       </c>
       <c r="E262" s="4">
-        <f t="shared" si="8"/>
         <v>0.29510992223566268</v>
       </c>
       <c r="F262" s="4">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -14151,11 +13629,9 @@
         <v>262</v>
       </c>
       <c r="E263" s="4">
-        <f t="shared" si="8"/>
         <v>0.30707276951182999</v>
       </c>
       <c r="F263" s="4">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -14170,11 +13646,9 @@
         <v>263</v>
       </c>
       <c r="E264" s="4">
-        <f t="shared" si="8"/>
         <v>0.32116933302445821</v>
       </c>
       <c r="F264" s="4">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -14189,11 +13663,9 @@
         <v>264</v>
       </c>
       <c r="E265" s="4">
-        <f t="shared" si="8"/>
         <v>0.34028777209195271</v>
       </c>
       <c r="F265" s="4">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -14208,11 +13680,9 @@
         <v>265</v>
       </c>
       <c r="E266" s="4">
-        <f t="shared" si="8"/>
         <v>0.3663436716253109</v>
       </c>
       <c r="F266" s="4">
-        <f t="shared" si="9"/>
         <v>9.9267959594732478E-3</v>
       </c>
     </row>
@@ -14227,11 +13697,9 @@
         <v>266</v>
       </c>
       <c r="E267" s="4">
-        <f t="shared" si="8"/>
         <v>0.37802661548961275</v>
       </c>
       <c r="F267" s="4">
-        <f t="shared" si="9"/>
         <v>5.2764256795246801E-2</v>
       </c>
     </row>
@@ -14246,11 +13714,9 @@
         <v>267</v>
       </c>
       <c r="E268" s="4">
-        <f t="shared" si="8"/>
         <v>0.37375424124977824</v>
       </c>
       <c r="F268" s="4">
-        <f t="shared" si="9"/>
         <v>3.7098884582520121E-2</v>
       </c>
     </row>
@@ -14265,11 +13731,9 @@
         <v>268</v>
       </c>
       <c r="E269" s="4">
-        <f t="shared" si="8"/>
         <v>0.40620439702814276</v>
       </c>
       <c r="F269" s="4">
-        <f t="shared" si="9"/>
         <v>0.15608278910319009</v>
       </c>
     </row>
@@ -14284,11 +13748,9 @@
         <v>269</v>
       </c>
       <c r="E270" s="4">
-        <f t="shared" si="8"/>
         <v>0.41907535899769177</v>
       </c>
       <c r="F270" s="4">
-        <f t="shared" si="9"/>
         <v>0.20327631632486978</v>
       </c>
     </row>
@@ -14303,11 +13765,9 @@
         <v>270</v>
       </c>
       <c r="E271" s="4">
-        <f t="shared" si="8"/>
         <v>0.40200562910600174</v>
       </c>
       <c r="F271" s="4">
-        <f t="shared" si="9"/>
         <v>0.14068730672200638</v>
       </c>
     </row>
@@ -14322,11 +13782,9 @@
         <v>271</v>
       </c>
       <c r="E272" s="4">
-        <f t="shared" si="8"/>
         <v>0.3812502080743963</v>
       </c>
       <c r="F272" s="4">
-        <f t="shared" si="9"/>
         <v>6.4584096272786454E-2</v>
       </c>
     </row>
@@ -14341,11 +13799,9 @@
         <v>272</v>
       </c>
       <c r="E273" s="4">
-        <f t="shared" si="8"/>
         <v>0.39267054471102641</v>
       </c>
       <c r="F273" s="4">
-        <f t="shared" si="9"/>
         <v>0.10645866394043028</v>
       </c>
     </row>
@@ -14360,11 +13816,9 @@
         <v>273</v>
       </c>
       <c r="E274" s="4">
-        <f t="shared" si="8"/>
         <v>0.43158288435502451</v>
       </c>
       <c r="F274" s="4">
-        <f t="shared" si="9"/>
         <v>0.24913724263508996</v>
       </c>
     </row>
@@ -14379,11 +13833,9 @@
         <v>274</v>
       </c>
       <c r="E275" s="4">
-        <f t="shared" si="8"/>
         <v>0.47732179815118997</v>
       </c>
       <c r="F275" s="4">
-        <f t="shared" si="9"/>
         <v>0.41684659322102985</v>
       </c>
     </row>
@@ -14398,11 +13850,9 @@
         <v>275</v>
       </c>
       <c r="E276" s="4">
-        <f t="shared" si="8"/>
         <v>0.54826068878173639</v>
       </c>
       <c r="F276" s="4">
-        <f t="shared" si="9"/>
         <v>0.67695585886636656</v>
       </c>
     </row>
@@ -14417,11 +13867,9 @@
         <v>276</v>
       </c>
       <c r="E277" s="4">
-        <f t="shared" si="8"/>
         <v>0.62323344837535444</v>
       </c>
       <c r="F277" s="4">
-        <f t="shared" si="9"/>
         <v>0.95185597737629968</v>
       </c>
     </row>
@@ -14436,11 +13884,9 @@
         <v>277</v>
       </c>
       <c r="E278" s="4">
-        <f t="shared" si="8"/>
         <v>0.67223219438032733</v>
       </c>
       <c r="F278" s="4">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14455,11 +13901,9 @@
         <v>278</v>
       </c>
       <c r="E279" s="4">
-        <f t="shared" si="8"/>
         <v>0.68494840101761811</v>
       </c>
       <c r="F279" s="4">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14474,11 +13918,9 @@
         <v>279</v>
       </c>
       <c r="E280" s="4">
-        <f t="shared" si="8"/>
         <v>0.68009757995605458</v>
       </c>
       <c r="F280" s="4">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14493,11 +13935,9 @@
         <v>280</v>
       </c>
       <c r="E281" s="4">
-        <f t="shared" si="8"/>
         <v>0.66708885539661822</v>
       </c>
       <c r="F281" s="4">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14512,11 +13952,9 @@
         <v>281</v>
       </c>
       <c r="E282" s="4">
-        <f t="shared" si="8"/>
         <v>0.64570227536288172</v>
       </c>
       <c r="F282" s="4">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14531,11 +13969,9 @@
         <v>282</v>
       </c>
       <c r="E283" s="4">
-        <f t="shared" si="8"/>
         <v>0.62051261555064552</v>
       </c>
       <c r="F283" s="4">
-        <f t="shared" si="9"/>
         <v>0.94187959035236679</v>
       </c>
     </row>
@@ -14550,11 +13986,9 @@
         <v>283</v>
       </c>
       <c r="E284" s="4">
-        <f t="shared" si="8"/>
         <v>0.60390203649347274</v>
       </c>
       <c r="F284" s="4">
-        <f t="shared" si="9"/>
         <v>0.88097413380939982</v>
       </c>
     </row>
@@ -14569,11 +14003,9 @@
         <v>284</v>
       </c>
       <c r="E285" s="4">
-        <f t="shared" si="8"/>
         <v>0.59083184328946359</v>
       </c>
       <c r="F285" s="4">
-        <f t="shared" si="9"/>
         <v>0.8330500920613666</v>
       </c>
     </row>
@@ -14588,11 +14020,9 @@
         <v>285</v>
       </c>
       <c r="E286" s="4">
-        <f t="shared" si="8"/>
         <v>0.58951239152388191</v>
       </c>
       <c r="F286" s="4">
-        <f t="shared" si="9"/>
         <v>0.82821210225423358</v>
       </c>
     </row>
@@ -14607,11 +14037,9 @@
         <v>286</v>
       </c>
       <c r="E287" s="4">
-        <f t="shared" si="8"/>
         <v>0.60316155173561825</v>
       </c>
       <c r="F287" s="4">
-        <f t="shared" si="9"/>
         <v>0.87825902303060011</v>
       </c>
     </row>
@@ -14626,11 +14054,9 @@
         <v>287</v>
       </c>
       <c r="E288" s="4">
-        <f t="shared" si="8"/>
         <v>0.63869025490500908</v>
       </c>
       <c r="F288" s="4">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14645,11 +14071,9 @@
         <v>288</v>
       </c>
       <c r="E289" s="4">
-        <f t="shared" si="8"/>
         <v>0.69125981764360001</v>
       </c>
       <c r="F289" s="4">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14664,11 +14088,9 @@
         <v>289</v>
       </c>
       <c r="E290" s="4">
-        <f t="shared" si="8"/>
         <v>0.75193396481600916</v>
       </c>
       <c r="F290" s="4">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14683,11 +14105,9 @@
         <v>290</v>
       </c>
       <c r="E291" s="4">
-        <f t="shared" si="8"/>
         <v>0.79331068559126361</v>
       </c>
       <c r="F291" s="4">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14702,11 +14122,9 @@
         <v>291</v>
       </c>
       <c r="E292" s="4">
-        <f t="shared" si="8"/>
         <v>0.81188626722856361</v>
       </c>
       <c r="F292" s="4">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14721,11 +14139,9 @@
         <v>292</v>
       </c>
       <c r="E293" s="4">
-        <f t="shared" si="8"/>
         <v>0.81126273762096368</v>
       </c>
       <c r="F293" s="4">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14740,11 +14156,9 @@
         <v>293</v>
       </c>
       <c r="E294" s="4">
-        <f t="shared" si="8"/>
         <v>0.81602989543568183</v>
       </c>
       <c r="F294" s="4">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14759,11 +14173,9 @@
         <v>294</v>
       </c>
       <c r="E295" s="4">
-        <f t="shared" si="8"/>
         <v>0.83226091211492725</v>
       </c>
       <c r="F295" s="4">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14778,11 +14190,9 @@
         <v>295</v>
       </c>
       <c r="E296" s="4">
-        <f t="shared" si="8"/>
         <v>0.85131671211936366</v>
       </c>
       <c r="F296" s="4">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14797,11 +14207,9 @@
         <v>296</v>
       </c>
       <c r="E297" s="4">
-        <f t="shared" si="8"/>
         <v>0.86167543584650008</v>
       </c>
       <c r="F297" s="4">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14816,11 +14224,9 @@
         <v>297</v>
       </c>
       <c r="E298" s="4">
-        <f t="shared" si="8"/>
         <v>0.86394396695223641</v>
       </c>
       <c r="F298" s="4">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14835,11 +14241,9 @@
         <v>298</v>
       </c>
       <c r="E299" s="4">
-        <f t="shared" si="8"/>
         <v>0.88109441237016373</v>
       </c>
       <c r="F299" s="4">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14854,11 +14258,9 @@
         <v>299</v>
       </c>
       <c r="E300" s="4">
-        <f t="shared" si="8"/>
         <v>0.90197615189985458</v>
       </c>
       <c r="F300" s="4">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14873,11 +14275,9 @@
         <v>300</v>
       </c>
       <c r="E301" s="4">
-        <f t="shared" si="8"/>
         <v>0.92088430578058178</v>
       </c>
       <c r="F301" s="4">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14892,11 +14292,9 @@
         <v>301</v>
       </c>
       <c r="E302" s="4">
-        <f t="shared" si="8"/>
         <v>0.93247179551558179</v>
       </c>
       <c r="F302" s="4">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14911,11 +14309,9 @@
         <v>302</v>
       </c>
       <c r="E303" s="4">
-        <f t="shared" si="8"/>
         <v>0.92196351831610002</v>
       </c>
       <c r="F303" s="4">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14930,11 +14326,9 @@
         <v>303</v>
       </c>
       <c r="E304" s="4">
-        <f t="shared" si="8"/>
         <v>0.89233485135165447</v>
       </c>
       <c r="F304" s="4">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14949,11 +14343,9 @@
         <v>304</v>
       </c>
       <c r="E305" s="4">
-        <f t="shared" si="8"/>
         <v>0.85690151561389993</v>
       </c>
       <c r="F305" s="4">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14968,11 +14360,9 @@
         <v>305</v>
       </c>
       <c r="E306" s="4">
-        <f t="shared" si="8"/>
         <v>0.81923077323219995</v>
       </c>
       <c r="F306" s="4">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14987,11 +14377,9 @@
         <v>306</v>
       </c>
       <c r="E307" s="4">
-        <f t="shared" si="8"/>
         <v>0.79539342360062726</v>
       </c>
       <c r="F307" s="4">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -15006,11 +14394,9 @@
         <v>307</v>
       </c>
       <c r="E308" s="4">
-        <f t="shared" si="8"/>
         <v>0.78872923417524554</v>
       </c>
       <c r="F308" s="4">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -15025,11 +14411,9 @@
         <v>308</v>
       </c>
       <c r="E309" s="4">
-        <f t="shared" si="8"/>
         <v>0.79769134521484553</v>
       </c>
       <c r="F309" s="4">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -15044,11 +14428,9 @@
         <v>309</v>
       </c>
       <c r="E310" s="4">
-        <f t="shared" si="8"/>
         <v>0.82635593414306363</v>
       </c>
       <c r="F310" s="4">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -15063,11 +14445,9 @@
         <v>310</v>
       </c>
       <c r="E311" s="4">
-        <f t="shared" si="8"/>
         <v>0.83561463789506363</v>
       </c>
       <c r="F311" s="4">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -15082,11 +14462,9 @@
         <v>311</v>
       </c>
       <c r="E312" s="4">
-        <f t="shared" si="8"/>
         <v>0.81869168715043628</v>
       </c>
       <c r="F312" s="4">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -15101,11 +14479,9 @@
         <v>312</v>
       </c>
       <c r="E313" s="4">
-        <f t="shared" si="8"/>
         <v>0.80283962596546354</v>
       </c>
       <c r="F313" s="4">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -15120,11 +14496,9 @@
         <v>313</v>
       </c>
       <c r="E314" s="4">
-        <f t="shared" si="8"/>
         <v>0.78405362909489995</v>
       </c>
       <c r="F314" s="4">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -15139,11 +14513,9 @@
         <v>314</v>
       </c>
       <c r="E315" s="4">
-        <f t="shared" si="8"/>
         <v>0.7778680107810273</v>
       </c>
       <c r="F315" s="4">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -15158,11 +14530,9 @@
         <v>315</v>
       </c>
       <c r="E316" s="4">
-        <f t="shared" si="8"/>
         <v>0.79305076599120916</v>
       </c>
       <c r="F316" s="4">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -15177,11 +14547,9 @@
         <v>316</v>
       </c>
       <c r="E317" s="4">
-        <f t="shared" si="8"/>
         <v>0.83597278594970914</v>
       </c>
       <c r="F317" s="4">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -15196,11 +14564,9 @@
         <v>317</v>
       </c>
       <c r="E318" s="4">
-        <f t="shared" si="8"/>
         <v>0.86800098419189098</v>
       </c>
       <c r="F318" s="4">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -15215,11 +14581,9 @@
         <v>318</v>
       </c>
       <c r="E319" s="4">
-        <f t="shared" si="8"/>
         <v>0.87512215701016371</v>
       </c>
       <c r="F319" s="4">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -15234,11 +14598,9 @@
         <v>319</v>
       </c>
       <c r="E320" s="4">
-        <f t="shared" si="8"/>
         <v>0.86792252280495452</v>
       </c>
       <c r="F320" s="4">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -15253,11 +14615,9 @@
         <v>320</v>
       </c>
       <c r="E321" s="4">
-        <f t="shared" si="8"/>
         <v>0.87662393396550908</v>
       </c>
       <c r="F321" s="4">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -15272,11 +14632,9 @@
         <v>321</v>
       </c>
       <c r="E322" s="4">
-        <f t="shared" si="8"/>
         <v>0.89024699818004549</v>
       </c>
       <c r="F322" s="4">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -15291,11 +14649,9 @@
         <v>322</v>
       </c>
       <c r="E323" s="4">
-        <f t="shared" ref="E323:E386" si="10">IF(B323&gt;$K$3,0,IF(B323&lt;$I$3,0,IF(B323&gt;$J$3,1,(B323-$I$3)/($J$3-$I$3))))</f>
         <v>0.89737103202126356</v>
       </c>
       <c r="F323" s="4">
-        <f t="shared" ref="F323:F386" si="11">IF(B323&gt;$K$4,0,IF(B323&lt;$I$4,0,IF(B323&gt;$J$4,1,(B323-$I$4)/($J$4-$I$4))))</f>
         <v>1</v>
       </c>
     </row>
@@ -15310,11 +14666,9 @@
         <v>323</v>
       </c>
       <c r="E324" s="4">
-        <f t="shared" si="10"/>
         <v>0.90931632302024556</v>
       </c>
       <c r="F324" s="4">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -15329,11 +14683,9 @@
         <v>324</v>
       </c>
       <c r="E325" s="4">
-        <f t="shared" si="10"/>
         <v>0.93764625896107279</v>
       </c>
       <c r="F325" s="4">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -15348,11 +14700,9 @@
         <v>325</v>
       </c>
       <c r="E326" s="4">
-        <f t="shared" si="10"/>
         <v>0.9528447931463091</v>
       </c>
       <c r="F326" s="4">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -15367,11 +14717,9 @@
         <v>326</v>
       </c>
       <c r="E327" s="4">
-        <f t="shared" si="10"/>
         <v>0.94430056485262714</v>
       </c>
       <c r="F327" s="4">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -15386,11 +14734,9 @@
         <v>327</v>
       </c>
       <c r="E328" s="4">
-        <f t="shared" si="10"/>
         <v>0.91656719554554544</v>
       </c>
       <c r="F328" s="4">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -15405,11 +14751,9 @@
         <v>328</v>
       </c>
       <c r="E329" s="4">
-        <f t="shared" si="10"/>
         <v>0.89688457142222722</v>
       </c>
       <c r="F329" s="4">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -15424,11 +14768,9 @@
         <v>329</v>
       </c>
       <c r="E330" s="4">
-        <f t="shared" si="10"/>
         <v>0.90066129511052739</v>
       </c>
       <c r="F330" s="4">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -15443,11 +14785,9 @@
         <v>330</v>
       </c>
       <c r="E331" s="4">
-        <f t="shared" si="10"/>
         <v>0.91243449124422726</v>
       </c>
       <c r="F331" s="4">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -15462,11 +14802,9 @@
         <v>331</v>
       </c>
       <c r="E332" s="4">
-        <f t="shared" si="10"/>
         <v>0.93542818589643639</v>
       </c>
       <c r="F332" s="4">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -15481,11 +14819,9 @@
         <v>332</v>
       </c>
       <c r="E333" s="4">
-        <f t="shared" si="10"/>
         <v>0.96702436967329997</v>
       </c>
       <c r="F333" s="4">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -15500,11 +14836,9 @@
         <v>333</v>
       </c>
       <c r="E334" s="4">
-        <f t="shared" si="10"/>
         <v>0.97774167494340003</v>
       </c>
       <c r="F334" s="4">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -15519,11 +14853,9 @@
         <v>334</v>
       </c>
       <c r="E335" s="4">
-        <f t="shared" si="10"/>
         <v>0.98262483423406366</v>
       </c>
       <c r="F335" s="4">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -15538,11 +14870,9 @@
         <v>335</v>
       </c>
       <c r="E336" s="4">
-        <f t="shared" si="10"/>
         <v>0.99142412705854543</v>
       </c>
       <c r="F336" s="4">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -15557,11 +14887,9 @@
         <v>336</v>
       </c>
       <c r="E337" s="4">
-        <f t="shared" si="10"/>
         <v>0.99196434020996371</v>
       </c>
       <c r="F337" s="4">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -15576,11 +14904,9 @@
         <v>337</v>
       </c>
       <c r="E338" s="4">
-        <f t="shared" si="10"/>
         <v>0.99508389559659094</v>
       </c>
       <c r="F338" s="4">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -15595,11 +14921,9 @@
         <v>338</v>
       </c>
       <c r="E339" s="4">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F339" s="4">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -15614,11 +14938,9 @@
         <v>339</v>
       </c>
       <c r="E340" s="4">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F340" s="4">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -15633,11 +14955,9 @@
         <v>340</v>
       </c>
       <c r="E341" s="4">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F341" s="4">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -15652,11 +14972,9 @@
         <v>341</v>
       </c>
       <c r="E342" s="4">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F342" s="4">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -15671,11 +14989,9 @@
         <v>342</v>
       </c>
       <c r="E343" s="4">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F343" s="4">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -15690,11 +15006,9 @@
         <v>343</v>
       </c>
       <c r="E344" s="4">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F344" s="4">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -15709,11 +15023,9 @@
         <v>344</v>
       </c>
       <c r="E345" s="4">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F345" s="4">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -15728,11 +15040,9 @@
         <v>345</v>
       </c>
       <c r="E346" s="4">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F346" s="4">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -15747,11 +15057,9 @@
         <v>346</v>
       </c>
       <c r="E347" s="4">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F347" s="4">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -15766,11 +15074,9 @@
         <v>347</v>
       </c>
       <c r="E348" s="4">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F348" s="4">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -15785,11 +15091,9 @@
         <v>348</v>
       </c>
       <c r="E349" s="4">
-        <f t="shared" si="10"/>
         <v>0.99300245805219989</v>
       </c>
       <c r="F349" s="4">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -15804,11 +15108,9 @@
         <v>349</v>
       </c>
       <c r="E350" s="4">
-        <f t="shared" si="10"/>
         <v>0.96758105538108186</v>
       </c>
       <c r="F350" s="4">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -15823,11 +15125,9 @@
         <v>350</v>
       </c>
       <c r="E351" s="4">
-        <f t="shared" si="10"/>
         <v>0.93103859641335451</v>
       </c>
       <c r="F351" s="4">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -15842,11 +15142,9 @@
         <v>351</v>
       </c>
       <c r="E352" s="4">
-        <f t="shared" si="10"/>
         <v>0.8919258984652455</v>
       </c>
       <c r="F352" s="4">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -15861,11 +15159,9 @@
         <v>352</v>
       </c>
       <c r="E353" s="4">
-        <f t="shared" si="10"/>
         <v>0.8575265190818091</v>
       </c>
       <c r="F353" s="4">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -15880,11 +15176,9 @@
         <v>353</v>
       </c>
       <c r="E354" s="4">
-        <f t="shared" si="10"/>
         <v>0.80716055089777283</v>
       </c>
       <c r="F354" s="4">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -15899,11 +15193,9 @@
         <v>354</v>
       </c>
       <c r="E355" s="4">
-        <f t="shared" si="10"/>
         <v>0.75590489127419103</v>
       </c>
       <c r="F355" s="4">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -15918,11 +15210,9 @@
         <v>355</v>
       </c>
       <c r="E356" s="4">
-        <f t="shared" si="10"/>
         <v>0.69896585291081825</v>
       </c>
       <c r="F356" s="4">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -15937,11 +15227,9 @@
         <v>356</v>
       </c>
       <c r="E357" s="4">
-        <f t="shared" si="10"/>
         <v>0.64533597772771822</v>
       </c>
       <c r="F357" s="4">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -15956,11 +15244,9 @@
         <v>357</v>
       </c>
       <c r="E358" s="4">
-        <f t="shared" si="10"/>
         <v>0.59978511116721822</v>
       </c>
       <c r="F358" s="4">
-        <f t="shared" si="11"/>
         <v>0.86587874094646666</v>
       </c>
     </row>
@@ -15975,11 +15261,9 @@
         <v>358</v>
       </c>
       <c r="E359" s="4">
-        <f t="shared" si="10"/>
         <v>0.55996756120161817</v>
       </c>
       <c r="F359" s="4">
-        <f t="shared" si="11"/>
         <v>0.71988105773926669</v>
       </c>
     </row>
@@ -15994,11 +15278,9 @@
         <v>359</v>
       </c>
       <c r="E360" s="4">
-        <f t="shared" si="10"/>
         <v>0.52515576102516914</v>
       </c>
       <c r="F360" s="4">
-        <f t="shared" si="11"/>
         <v>0.5922377904256203</v>
       </c>
     </row>
@@ -16013,11 +15295,9 @@
         <v>360</v>
       </c>
       <c r="E361" s="4">
-        <f t="shared" si="10"/>
         <v>0.50043929706920276</v>
       </c>
       <c r="F361" s="4">
-        <f t="shared" si="11"/>
         <v>0.50161075592041016</v>
       </c>
     </row>
@@ -16032,11 +15312,9 @@
         <v>361</v>
       </c>
       <c r="E362" s="4">
-        <f t="shared" si="10"/>
         <v>0.47793925892222994</v>
       </c>
       <c r="F362" s="4">
-        <f t="shared" si="11"/>
         <v>0.41911061604817651</v>
       </c>
     </row>
@@ -16051,11 +15329,9 @@
         <v>362</v>
       </c>
       <c r="E363" s="4">
-        <f t="shared" si="10"/>
         <v>0.45724114504727448</v>
       </c>
       <c r="F363" s="4">
-        <f t="shared" si="11"/>
         <v>0.34321753184000653</v>
       </c>
     </row>
@@ -16070,11 +15346,9 @@
         <v>363</v>
       </c>
       <c r="E364" s="4">
-        <f t="shared" si="10"/>
         <v>0.43931241468949733</v>
       </c>
       <c r="F364" s="4">
-        <f t="shared" si="11"/>
         <v>0.27747885386149029</v>
       </c>
     </row>
@@ -16089,11 +15363,9 @@
         <v>364</v>
       </c>
       <c r="E365" s="4">
-        <f t="shared" si="10"/>
         <v>0.43566989898681641</v>
       </c>
       <c r="F365" s="4">
-        <f t="shared" si="11"/>
         <v>0.26412296295166016</v>
       </c>
     </row>
@@ -16108,11 +15380,9 @@
         <v>365</v>
       </c>
       <c r="E366" s="4">
-        <f t="shared" si="10"/>
         <v>0.43249060890891367</v>
       </c>
       <c r="F366" s="4">
-        <f t="shared" si="11"/>
         <v>0.25246556599935016</v>
       </c>
     </row>
@@ -16127,11 +15397,9 @@
         <v>366</v>
       </c>
       <c r="E367" s="4">
-        <f t="shared" si="10"/>
         <v>0.43671625310724449</v>
       </c>
       <c r="F367" s="4">
-        <f t="shared" si="11"/>
         <v>0.26795959472656311</v>
       </c>
     </row>
@@ -16146,11 +15414,9 @@
         <v>367</v>
       </c>
       <c r="E368" s="4">
-        <f t="shared" si="10"/>
         <v>0.44441223144531267</v>
       </c>
       <c r="F368" s="4">
-        <f t="shared" si="11"/>
         <v>0.29617818196614643</v>
       </c>
     </row>
@@ -16165,11 +15431,9 @@
         <v>368</v>
       </c>
       <c r="E369" s="4">
-        <f t="shared" si="10"/>
         <v>0.45005416870117188</v>
       </c>
       <c r="F369" s="4">
-        <f t="shared" si="11"/>
         <v>0.31686528523763019</v>
       </c>
     </row>
@@ -16184,11 +15448,9 @@
         <v>369</v>
       </c>
       <c r="E370" s="4">
-        <f t="shared" si="10"/>
         <v>0.45984979109330643</v>
       </c>
       <c r="F370" s="4">
-        <f t="shared" si="11"/>
         <v>0.3527825673421236</v>
       </c>
     </row>
@@ -16203,11 +15465,9 @@
         <v>370</v>
       </c>
       <c r="E371" s="4">
-        <f t="shared" si="10"/>
         <v>0.44651681726629083</v>
       </c>
       <c r="F371" s="4">
-        <f t="shared" si="11"/>
         <v>0.30389499664306641</v>
       </c>
     </row>
@@ -16222,11 +15482,9 @@
         <v>371</v>
       </c>
       <c r="E372" s="4">
-        <f t="shared" si="10"/>
         <v>0.41948188434947636</v>
       </c>
       <c r="F372" s="4">
-        <f t="shared" si="11"/>
         <v>0.20476690928141336</v>
       </c>
     </row>
@@ -16241,11 +15499,9 @@
         <v>372</v>
       </c>
       <c r="E373" s="4">
-        <f t="shared" si="10"/>
         <v>0.39577544819224997</v>
       </c>
       <c r="F373" s="4">
-        <f t="shared" si="11"/>
         <v>0.11784331003824988</v>
       </c>
     </row>
@@ -16260,11 +15516,9 @@
         <v>373</v>
       </c>
       <c r="E374" s="4">
-        <f t="shared" si="10"/>
         <v>0.36466763236305916</v>
       </c>
       <c r="F374" s="4">
-        <f t="shared" si="11"/>
         <v>3.7813186645501893E-3</v>
       </c>
     </row>
@@ -16279,11 +15533,9 @@
         <v>374</v>
       </c>
       <c r="E375" s="4">
-        <f t="shared" si="10"/>
         <v>0.32961160486394725</v>
       </c>
       <c r="F375" s="4">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -16298,11 +15550,9 @@
         <v>375</v>
       </c>
       <c r="E376" s="4">
-        <f t="shared" si="10"/>
         <v>0.29599462855945907</v>
       </c>
       <c r="F376" s="4">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -16317,11 +15567,9 @@
         <v>376</v>
       </c>
       <c r="E377" s="4">
-        <f t="shared" si="10"/>
         <v>0.27946268428455723</v>
       </c>
       <c r="F377" s="4">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -16336,11 +15584,9 @@
         <v>377</v>
       </c>
       <c r="E378" s="4">
-        <f t="shared" si="10"/>
         <v>0.26895371350375091</v>
       </c>
       <c r="F378" s="4">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -16355,11 +15601,9 @@
         <v>378</v>
       </c>
       <c r="E379" s="4">
-        <f t="shared" si="10"/>
         <v>0.26069528406316544</v>
       </c>
       <c r="F379" s="4">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -16374,11 +15618,9 @@
         <v>379</v>
       </c>
       <c r="E380" s="4">
-        <f t="shared" si="10"/>
         <v>0.26242923736572271</v>
       </c>
       <c r="F380" s="4">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -16393,11 +15635,9 @@
         <v>380</v>
       </c>
       <c r="E381" s="4">
-        <f t="shared" si="10"/>
         <v>0.28218169645829633</v>
       </c>
       <c r="F381" s="4">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -16412,11 +15652,9 @@
         <v>381</v>
       </c>
       <c r="E382" s="4">
-        <f t="shared" si="10"/>
         <v>0.30843552676114183</v>
       </c>
       <c r="F382" s="4">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -16431,11 +15669,9 @@
         <v>382</v>
       </c>
       <c r="E383" s="4">
-        <f t="shared" si="10"/>
         <v>0.3096274896101518</v>
       </c>
       <c r="F383" s="4">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -16450,11 +15686,9 @@
         <v>383</v>
       </c>
       <c r="E384" s="4">
-        <f t="shared" si="10"/>
         <v>0.30220296166159905</v>
       </c>
       <c r="F384" s="4">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -16469,11 +15703,9 @@
         <v>384</v>
       </c>
       <c r="E385" s="4">
-        <f t="shared" si="10"/>
         <v>0.28052949905395547</v>
       </c>
       <c r="F385" s="4">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -16488,11 +15720,9 @@
         <v>385</v>
       </c>
       <c r="E386" s="4">
-        <f t="shared" si="10"/>
         <v>0.24258604916659277</v>
       </c>
       <c r="F386" s="4">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -16507,11 +15737,9 @@
         <v>386</v>
       </c>
       <c r="E387" s="4">
-        <f t="shared" ref="E387:E450" si="12">IF(B387&gt;$K$3,0,IF(B387&lt;$I$3,0,IF(B387&gt;$J$3,1,(B387-$I$3)/($J$3-$I$3))))</f>
         <v>0.20069629495794092</v>
       </c>
       <c r="F387" s="4">
-        <f t="shared" ref="F387:F450" si="13">IF(B387&gt;$K$4,0,IF(B387&lt;$I$4,0,IF(B387&gt;$J$4,1,(B387-$I$4)/($J$4-$I$4))))</f>
         <v>0</v>
       </c>
     </row>
@@ -16526,11 +15754,9 @@
         <v>387</v>
       </c>
       <c r="E388" s="4">
-        <f t="shared" si="12"/>
         <v>0.16270390423861458</v>
       </c>
       <c r="F388" s="4">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -16545,11 +15771,9 @@
         <v>388</v>
       </c>
       <c r="E389" s="4">
-        <f t="shared" si="12"/>
         <v>0.14586036855524268</v>
       </c>
       <c r="F389" s="4">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -16564,11 +15788,9 @@
         <v>389</v>
       </c>
       <c r="E390" s="4">
-        <f t="shared" si="12"/>
         <v>0.13402778452093</v>
       </c>
       <c r="F390" s="4">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -16583,11 +15805,9 @@
         <v>390</v>
       </c>
       <c r="E391" s="4">
-        <f t="shared" si="12"/>
         <v>0.12750799005681818</v>
       </c>
       <c r="F391" s="4">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -16602,11 +15822,9 @@
         <v>391</v>
       </c>
       <c r="E392" s="4">
-        <f t="shared" si="12"/>
         <v>0.13271622224287546</v>
       </c>
       <c r="F392" s="4">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -16621,11 +15839,9 @@
         <v>392</v>
       </c>
       <c r="E393" s="4">
-        <f t="shared" si="12"/>
         <v>0.15331723473288819</v>
       </c>
       <c r="F393" s="4">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -16640,11 +15856,9 @@
         <v>393</v>
       </c>
       <c r="E394" s="4">
-        <f t="shared" si="12"/>
         <v>0.18101232702081821</v>
       </c>
       <c r="F394" s="4">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -16659,11 +15873,9 @@
         <v>394</v>
       </c>
       <c r="E395" s="4">
-        <f t="shared" si="12"/>
         <v>0.1921597394076264</v>
       </c>
       <c r="F395" s="4">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -16678,11 +15890,9 @@
         <v>395</v>
       </c>
       <c r="E396" s="4">
-        <f t="shared" si="12"/>
         <v>0.18878884748979088</v>
       </c>
       <c r="F396" s="4">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -16697,11 +15907,9 @@
         <v>396</v>
       </c>
       <c r="E397" s="4">
-        <f t="shared" si="12"/>
         <v>0.17102319544011912</v>
       </c>
       <c r="F397" s="4">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -16716,11 +15924,9 @@
         <v>397</v>
       </c>
       <c r="E398" s="4">
-        <f t="shared" si="12"/>
         <v>0.13198679143732275</v>
       </c>
       <c r="F398" s="4">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -16735,11 +15941,9 @@
         <v>398</v>
       </c>
       <c r="E399" s="4">
-        <f t="shared" si="12"/>
         <v>8.2521568645130911E-2</v>
       </c>
       <c r="F399" s="4">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -16754,11 +15958,9 @@
         <v>399</v>
       </c>
       <c r="E400" s="4">
-        <f t="shared" si="12"/>
         <v>3.4415808590975434E-2</v>
       </c>
       <c r="F400" s="4">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -16773,11 +15975,9 @@
         <v>400</v>
       </c>
       <c r="E401" s="4">
-        <f t="shared" si="12"/>
         <v>1.2819766998290934E-2</v>
       </c>
       <c r="F401" s="4">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -16792,11 +15992,9 @@
         <v>401</v>
       </c>
       <c r="E402" s="4">
-        <f t="shared" si="12"/>
         <v>2.5216839530250921E-2</v>
       </c>
       <c r="F402" s="4">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -16811,11 +16009,9 @@
         <v>402</v>
       </c>
       <c r="E403" s="4">
-        <f t="shared" si="12"/>
         <v>5.520707910711091E-2</v>
       </c>
       <c r="F403" s="4">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -16830,11 +16026,9 @@
         <v>403</v>
       </c>
       <c r="E404" s="4">
-        <f t="shared" si="12"/>
         <v>9.279125387018361E-2</v>
       </c>
       <c r="F404" s="4">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -16849,11 +16043,9 @@
         <v>404</v>
       </c>
       <c r="E405" s="4">
-        <f t="shared" si="12"/>
         <v>0.13490048321810635</v>
       </c>
       <c r="F405" s="4">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -16868,11 +16060,9 @@
         <v>405</v>
       </c>
       <c r="E406" s="4">
-        <f t="shared" si="12"/>
         <v>0.17673561789772727</v>
       </c>
       <c r="F406" s="4">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -16887,11 +16077,9 @@
         <v>406</v>
       </c>
       <c r="E407" s="4">
-        <f t="shared" si="12"/>
         <v>0.18900182030417725</v>
       </c>
       <c r="F407" s="4">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -16906,11 +16094,9 @@
         <v>407</v>
       </c>
       <c r="E408" s="4">
-        <f t="shared" si="12"/>
         <v>0.18781514601274002</v>
       </c>
       <c r="F408" s="4">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -16925,11 +16111,9 @@
         <v>408</v>
       </c>
       <c r="E409" s="4">
-        <f t="shared" si="12"/>
         <v>0.18511620434847728</v>
       </c>
       <c r="F409" s="4">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -16944,11 +16128,9 @@
         <v>409</v>
       </c>
       <c r="E410" s="4">
-        <f t="shared" si="12"/>
         <v>0.1808752146634191</v>
       </c>
       <c r="F410" s="4">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -16963,11 +16145,9 @@
         <v>410</v>
       </c>
       <c r="E411" s="4">
-        <f t="shared" si="12"/>
         <v>0.17262012308294092</v>
       </c>
       <c r="F411" s="4">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -16982,11 +16162,9 @@
         <v>411</v>
       </c>
       <c r="E412" s="4">
-        <f t="shared" si="12"/>
         <v>0.15717402371493269</v>
       </c>
       <c r="F412" s="4">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -17001,11 +16179,9 @@
         <v>412</v>
       </c>
       <c r="E413" s="4">
-        <f t="shared" si="12"/>
         <v>0.14005548303777546</v>
       </c>
       <c r="F413" s="4">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -17020,11 +16196,9 @@
         <v>413</v>
       </c>
       <c r="E414" s="4">
-        <f t="shared" si="12"/>
         <v>0.12001605467362821</v>
       </c>
       <c r="F414" s="4">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -17039,11 +16213,9 @@
         <v>414</v>
       </c>
       <c r="E415" s="4">
-        <f t="shared" si="12"/>
         <v>9.6916675567627272E-2</v>
       </c>
       <c r="F415" s="4">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -17058,11 +16230,9 @@
         <v>415</v>
       </c>
       <c r="E416" s="4">
-        <f t="shared" si="12"/>
         <v>7.9547535289417284E-2</v>
       </c>
       <c r="F416" s="4">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -17077,11 +16247,9 @@
         <v>416</v>
       </c>
       <c r="E417" s="4">
-        <f t="shared" si="12"/>
         <v>7.3484204032204528E-2</v>
       </c>
       <c r="F417" s="4">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -17096,11 +16264,9 @@
         <v>417</v>
       </c>
       <c r="E418" s="4">
-        <f t="shared" si="12"/>
         <v>7.7981038527055457E-2</v>
       </c>
       <c r="F418" s="4">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -17115,11 +16281,9 @@
         <v>418</v>
       </c>
       <c r="E419" s="4">
-        <f t="shared" si="12"/>
         <v>9.3264363028786393E-2</v>
       </c>
       <c r="F419" s="4">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -17134,11 +16298,9 @@
         <v>419</v>
       </c>
       <c r="E420" s="4">
-        <f t="shared" si="12"/>
         <v>0.10948103124445184</v>
       </c>
       <c r="F420" s="4">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -17153,11 +16315,9 @@
         <v>420</v>
       </c>
       <c r="E421" s="4">
-        <f t="shared" si="12"/>
         <v>0.1168260574340818</v>
       </c>
       <c r="F421" s="4">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -17172,11 +16332,9 @@
         <v>421</v>
       </c>
       <c r="E422" s="4">
-        <f t="shared" si="12"/>
         <v>0.10859636826948726</v>
       </c>
       <c r="F422" s="4">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -17191,11 +16349,9 @@
         <v>422</v>
       </c>
       <c r="E423" s="4">
-        <f t="shared" si="12"/>
         <v>8.9697751131924561E-2</v>
       </c>
       <c r="F423" s="4">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -17210,11 +16366,9 @@
         <v>423</v>
       </c>
       <c r="E424" s="4">
-        <f t="shared" si="12"/>
         <v>7.6315533031117239E-2</v>
       </c>
       <c r="F424" s="4">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -17229,11 +16383,9 @@
         <v>424</v>
       </c>
       <c r="E425" s="4">
-        <f t="shared" si="12"/>
         <v>6.296868757768094E-2</v>
       </c>
       <c r="F425" s="4">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -17248,11 +16400,9 @@
         <v>425</v>
       </c>
       <c r="E426" s="4">
-        <f t="shared" si="12"/>
         <v>4.9263780767267236E-2</v>
       </c>
       <c r="F426" s="4">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -17267,11 +16417,9 @@
         <v>426</v>
       </c>
       <c r="E427" s="4">
-        <f t="shared" si="12"/>
         <v>3.5348241979425439E-2</v>
       </c>
       <c r="F427" s="4">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -17286,11 +16434,9 @@
         <v>427</v>
       </c>
       <c r="E428" s="4">
-        <f t="shared" si="12"/>
         <v>2.9568412087179995E-2</v>
       </c>
       <c r="F428" s="4">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -17305,11 +16451,9 @@
         <v>428</v>
       </c>
       <c r="E429" s="4">
-        <f t="shared" si="12"/>
         <v>3.0462438409979097E-2</v>
       </c>
       <c r="F429" s="4">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -17324,11 +16468,9 @@
         <v>429</v>
       </c>
       <c r="E430" s="4">
-        <f t="shared" si="12"/>
         <v>3.3070087432861814E-2</v>
       </c>
       <c r="F430" s="4">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -17343,11 +16485,9 @@
         <v>430</v>
       </c>
       <c r="E431" s="4">
-        <f t="shared" si="12"/>
         <v>3.0592008070512735E-2</v>
       </c>
       <c r="F431" s="4">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -17362,11 +16502,9 @@
         <v>431</v>
       </c>
       <c r="E432" s="4">
-        <f t="shared" si="12"/>
         <v>3.3326105637983598E-2</v>
       </c>
       <c r="F432" s="4">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -17381,11 +16519,9 @@
         <v>432</v>
       </c>
       <c r="E433" s="4">
-        <f t="shared" si="12"/>
         <v>5.1209536465731856E-2</v>
       </c>
       <c r="F433" s="4">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -17400,11 +16536,9 @@
         <v>433</v>
       </c>
       <c r="E434" s="4">
-        <f t="shared" si="12"/>
         <v>8.597083525224182E-2</v>
       </c>
       <c r="F434" s="4">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -17419,11 +16553,9 @@
         <v>434</v>
       </c>
       <c r="E435" s="4">
-        <f t="shared" si="12"/>
         <v>0.12638646906072451</v>
       </c>
       <c r="F435" s="4">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -17438,11 +16570,9 @@
         <v>435</v>
       </c>
       <c r="E436" s="4">
-        <f t="shared" si="12"/>
         <v>0.16565322875976546</v>
       </c>
       <c r="F436" s="4">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -17457,11 +16587,9 @@
         <v>436</v>
       </c>
       <c r="E437" s="4">
-        <f t="shared" si="12"/>
         <v>0.19946393099698187</v>
       </c>
       <c r="F437" s="4">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -17476,11 +16604,9 @@
         <v>437</v>
       </c>
       <c r="E438" s="4">
-        <f t="shared" si="12"/>
         <v>0.21437432549216548</v>
       </c>
       <c r="F438" s="4">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -17495,11 +16621,9 @@
         <v>438</v>
       </c>
       <c r="E439" s="4">
-        <f t="shared" si="12"/>
         <v>0.22228778492320636</v>
       </c>
       <c r="F439" s="4">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -17514,11 +16638,9 @@
         <v>439</v>
       </c>
       <c r="E440" s="4">
-        <f t="shared" si="12"/>
         <v>0.23052419315684911</v>
       </c>
       <c r="F440" s="4">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -17533,11 +16655,9 @@
         <v>440</v>
       </c>
       <c r="E441" s="4">
-        <f t="shared" si="12"/>
         <v>0.23231640729037181</v>
       </c>
       <c r="F441" s="4">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -17552,11 +16672,9 @@
         <v>441</v>
       </c>
       <c r="E442" s="4">
-        <f t="shared" si="12"/>
         <v>0.23126818917014366</v>
       </c>
       <c r="F442" s="4">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -17571,11 +16689,9 @@
         <v>442</v>
       </c>
       <c r="E443" s="4">
-        <f t="shared" si="12"/>
         <v>0.23561824451793364</v>
       </c>
       <c r="F443" s="4">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -17590,11 +16706,9 @@
         <v>443</v>
       </c>
       <c r="E444" s="4">
-        <f t="shared" si="12"/>
         <v>0.26307093013416638</v>
       </c>
       <c r="F444" s="4">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -17609,11 +16723,9 @@
         <v>444</v>
       </c>
       <c r="E445" s="4">
-        <f t="shared" si="12"/>
         <v>0.30751917578957272</v>
       </c>
       <c r="F445" s="4">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -17628,11 +16740,9 @@
         <v>445</v>
       </c>
       <c r="E446" s="4">
-        <f t="shared" si="12"/>
         <v>0.34460817683826817</v>
       </c>
       <c r="F446" s="4">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -17647,11 +16757,9 @@
         <v>446</v>
       </c>
       <c r="E447" s="4">
-        <f t="shared" si="12"/>
         <v>0.36592734943736732</v>
       </c>
       <c r="F447" s="4">
-        <f t="shared" si="13"/>
         <v>8.400281270346829E-3</v>
       </c>
     </row>
@@ -17666,11 +16774,9 @@
         <v>447</v>
       </c>
       <c r="E448" s="4">
-        <f t="shared" si="12"/>
         <v>0.36950813640247726</v>
       </c>
       <c r="F448" s="4">
-        <f t="shared" si="13"/>
         <v>2.1529833475749882E-2</v>
       </c>
     </row>
@@ -17685,11 +16791,9 @@
         <v>448</v>
       </c>
       <c r="E449" s="4">
-        <f t="shared" si="12"/>
         <v>0.38260407881303266</v>
       </c>
       <c r="F449" s="4">
-        <f t="shared" si="13"/>
         <v>6.9548288981119796E-2</v>
       </c>
     </row>
@@ -17704,11 +16808,9 @@
         <v>449</v>
       </c>
       <c r="E450" s="4">
-        <f t="shared" si="12"/>
         <v>0.40875322168523631</v>
       </c>
       <c r="F450" s="4">
-        <f t="shared" si="13"/>
         <v>0.16542847951253314</v>
       </c>
     </row>
@@ -17723,11 +16825,9 @@
         <v>450</v>
       </c>
       <c r="E451" s="4">
-        <f t="shared" ref="E451:E514" si="14">IF(B451&gt;$K$3,0,IF(B451&lt;$I$3,0,IF(B451&gt;$J$3,1,(B451-$I$3)/($J$3-$I$3))))</f>
         <v>0.42729351737282462</v>
       </c>
       <c r="F451" s="4">
-        <f t="shared" ref="F451:F514" si="15">IF(B451&gt;$K$4,0,IF(B451&lt;$I$4,0,IF(B451&gt;$J$4,1,(B451-$I$4)/($J$4-$I$4))))</f>
         <v>0.2334095637003569</v>
       </c>
     </row>
@@ -17742,11 +16842,9 @@
         <v>451</v>
       </c>
       <c r="E452" s="4">
-        <f t="shared" si="14"/>
         <v>0.43480994484641367</v>
       </c>
       <c r="F452" s="4">
-        <f t="shared" si="15"/>
         <v>0.26096979777018348</v>
       </c>
     </row>
@@ -17761,11 +16859,9 @@
         <v>452</v>
       </c>
       <c r="E453" s="4">
-        <f t="shared" si="14"/>
         <v>0.44687375155362186</v>
       </c>
       <c r="F453" s="4">
-        <f t="shared" si="15"/>
         <v>0.3052037556966134</v>
       </c>
     </row>
@@ -17780,11 +16876,9 @@
         <v>453</v>
       </c>
       <c r="E454" s="4">
-        <f t="shared" si="14"/>
         <v>0.47021900523792631</v>
       </c>
       <c r="F454" s="4">
-        <f t="shared" si="15"/>
         <v>0.39080301920572974</v>
       </c>
     </row>
@@ -17799,11 +16893,9 @@
         <v>454</v>
       </c>
       <c r="E455" s="4">
-        <f t="shared" si="14"/>
         <v>0.46658585288307913</v>
       </c>
       <c r="F455" s="4">
-        <f t="shared" si="15"/>
         <v>0.37748146057129023</v>
       </c>
     </row>
@@ -17818,11 +16910,9 @@
         <v>455</v>
       </c>
       <c r="E456" s="4">
-        <f t="shared" si="14"/>
         <v>0.46492671966552734</v>
       </c>
       <c r="F456" s="4">
-        <f t="shared" si="15"/>
         <v>0.37139797210693359</v>
       </c>
     </row>
@@ -17837,11 +16927,9 @@
         <v>456</v>
       </c>
       <c r="E457" s="4">
-        <f t="shared" si="14"/>
         <v>0.47351473028009639</v>
       </c>
       <c r="F457" s="4">
-        <f t="shared" si="15"/>
         <v>0.40288734436035334</v>
       </c>
     </row>
@@ -17856,11 +16944,9 @@
         <v>457</v>
       </c>
       <c r="E458" s="4">
-        <f t="shared" si="14"/>
         <v>0.46993749791925638</v>
       </c>
       <c r="F458" s="4">
-        <f t="shared" si="15"/>
         <v>0.38977082570394</v>
       </c>
     </row>
@@ -17875,11 +16961,9 @@
         <v>458</v>
       </c>
       <c r="E459" s="4">
-        <f t="shared" si="14"/>
         <v>0.46804731542413902</v>
       </c>
       <c r="F459" s="4">
-        <f t="shared" si="15"/>
         <v>0.38284015655517639</v>
       </c>
     </row>
@@ -17894,11 +16978,9 @@
         <v>459</v>
       </c>
       <c r="E460" s="4">
-        <f t="shared" si="14"/>
         <v>0.46061377091841282</v>
       </c>
       <c r="F460" s="4">
-        <f t="shared" si="15"/>
         <v>0.35558382670084693</v>
       </c>
     </row>
@@ -17913,11 +16995,9 @@
         <v>460</v>
       </c>
       <c r="E461" s="4">
-        <f t="shared" si="14"/>
         <v>0.48406904393976369</v>
       </c>
       <c r="F461" s="4">
-        <f t="shared" si="15"/>
         <v>0.44158649444580017</v>
       </c>
     </row>
@@ -17932,11 +17012,9 @@
         <v>461</v>
       </c>
       <c r="E462" s="4">
-        <f t="shared" si="14"/>
         <v>0.49441510980779457</v>
       </c>
       <c r="F462" s="4">
-        <f t="shared" si="15"/>
         <v>0.47952206929524682</v>
       </c>
     </row>
@@ -17951,11 +17029,9 @@
         <v>462</v>
       </c>
       <c r="E463" s="4">
-        <f t="shared" si="14"/>
         <v>0.49204609610817635</v>
       </c>
       <c r="F463" s="4">
-        <f t="shared" si="15"/>
         <v>0.47083568572997986</v>
       </c>
     </row>
@@ -17970,11 +17046,9 @@
         <v>463</v>
       </c>
       <c r="E464" s="4">
-        <f t="shared" si="14"/>
         <v>0.49730534987016173</v>
       </c>
       <c r="F464" s="4">
-        <f t="shared" si="15"/>
         <v>0.49011961619059302</v>
       </c>
     </row>
@@ -17989,11 +17063,9 @@
         <v>464</v>
       </c>
       <c r="E465" s="4">
-        <f t="shared" si="14"/>
         <v>0.49314091422341089</v>
       </c>
       <c r="F465" s="4">
-        <f t="shared" si="15"/>
         <v>0.47485001881917316</v>
       </c>
     </row>
@@ -18008,11 +17080,9 @@
         <v>465</v>
       </c>
       <c r="E466" s="4">
-        <f t="shared" si="14"/>
         <v>0.47590264407071187</v>
       </c>
       <c r="F466" s="4">
-        <f t="shared" si="15"/>
         <v>0.41164302825927673</v>
       </c>
     </row>
@@ -18027,11 +17097,9 @@
         <v>466</v>
       </c>
       <c r="E467" s="4">
-        <f t="shared" si="14"/>
         <v>0.46818004954945008</v>
       </c>
       <c r="F467" s="4">
-        <f t="shared" si="15"/>
         <v>0.38332684834798353</v>
       </c>
     </row>
@@ -18046,11 +17114,9 @@
         <v>467</v>
       </c>
       <c r="E468" s="4">
-        <f t="shared" si="14"/>
         <v>0.49082834070379083</v>
       </c>
       <c r="F468" s="4">
-        <f t="shared" si="15"/>
         <v>0.46637058258056641</v>
       </c>
     </row>
@@ -18065,11 +17131,9 @@
         <v>468</v>
       </c>
       <c r="E469" s="4">
-        <f t="shared" si="14"/>
         <v>0.55339397083629083</v>
       </c>
       <c r="F469" s="4">
-        <f t="shared" si="15"/>
         <v>0.6957778930663997</v>
       </c>
     </row>
@@ -18084,11 +17148,9 @@
         <v>469</v>
       </c>
       <c r="E470" s="4">
-        <f t="shared" si="14"/>
         <v>0.61627804149280907</v>
       </c>
       <c r="F470" s="4">
-        <f t="shared" si="15"/>
         <v>0.92635281880696674</v>
       </c>
     </row>
@@ -18103,11 +17165,9 @@
         <v>470</v>
       </c>
       <c r="E471" s="4">
-        <f t="shared" si="14"/>
         <v>0.67151165008544556</v>
       </c>
       <c r="F471" s="4">
-        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -18122,11 +17182,9 @@
         <v>471</v>
       </c>
       <c r="E472" s="4">
-        <f t="shared" si="14"/>
         <v>0.71054051139138186</v>
       </c>
       <c r="F472" s="4">
-        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -18141,11 +17199,9 @@
         <v>472</v>
       </c>
       <c r="E473" s="4">
-        <f t="shared" si="14"/>
         <v>0.73264928297562726</v>
       </c>
       <c r="F473" s="4">
-        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -18160,11 +17216,9 @@
         <v>473</v>
       </c>
       <c r="E474" s="4">
-        <f t="shared" si="14"/>
         <v>0.75166658921675455</v>
       </c>
       <c r="F474" s="4">
-        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -18179,11 +17233,9 @@
         <v>474</v>
       </c>
       <c r="E475" s="4">
-        <f t="shared" si="14"/>
         <v>0.78092002868652732</v>
       </c>
       <c r="F475" s="4">
-        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -18198,11 +17250,9 @@
         <v>475</v>
       </c>
       <c r="E476" s="4">
-        <f t="shared" si="14"/>
         <v>0.81664146076549082</v>
       </c>
       <c r="F476" s="4">
-        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -18217,11 +17267,9 @@
         <v>476</v>
       </c>
       <c r="E477" s="4">
-        <f t="shared" si="14"/>
         <v>0.86643479087136366</v>
       </c>
       <c r="F477" s="4">
-        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -18236,11 +17284,9 @@
         <v>477</v>
       </c>
       <c r="E478" s="4">
-        <f t="shared" si="14"/>
         <v>0.92010506716641816</v>
       </c>
       <c r="F478" s="4">
-        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -18255,11 +17301,9 @@
         <v>478</v>
       </c>
       <c r="E479" s="4">
-        <f t="shared" si="14"/>
         <v>0.96013962138782738</v>
       </c>
       <c r="F479" s="4">
-        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -18274,11 +17318,9 @@
         <v>479</v>
       </c>
       <c r="E480" s="4">
-        <f t="shared" si="14"/>
         <v>0.99331404946067281</v>
       </c>
       <c r="F480" s="4">
-        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -18293,11 +17335,9 @@
         <v>480</v>
       </c>
       <c r="E481" s="4">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F481" s="4">
-        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -18312,11 +17352,9 @@
         <v>481</v>
       </c>
       <c r="E482" s="4">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F482" s="4">
-        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -18331,11 +17369,9 @@
         <v>482</v>
       </c>
       <c r="E483" s="4">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F483" s="4">
-        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -18350,11 +17386,9 @@
         <v>483</v>
       </c>
       <c r="E484" s="4">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F484" s="4">
-        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -18369,11 +17403,9 @@
         <v>484</v>
       </c>
       <c r="E485" s="4">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F485" s="4">
-        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -18388,11 +17420,9 @@
         <v>485</v>
       </c>
       <c r="E486" s="4">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F486" s="4">
-        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -18407,11 +17437,9 @@
         <v>486</v>
       </c>
       <c r="E487" s="4">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F487" s="4">
-        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -18426,11 +17454,9 @@
         <v>487</v>
       </c>
       <c r="E488" s="4">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F488" s="4">
-        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -18445,11 +17471,9 @@
         <v>488</v>
       </c>
       <c r="E489" s="4">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F489" s="4">
-        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -18464,11 +17488,9 @@
         <v>489</v>
       </c>
       <c r="E490" s="4">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F490" s="4">
-        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -18483,11 +17505,9 @@
         <v>490</v>
       </c>
       <c r="E491" s="4">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F491" s="4">
-        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -18502,11 +17522,9 @@
         <v>491</v>
       </c>
       <c r="E492" s="4">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F492" s="4">
-        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -18521,11 +17539,9 @@
         <v>492</v>
       </c>
       <c r="E493" s="4">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F493" s="4">
-        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -18540,11 +17556,9 @@
         <v>493</v>
       </c>
       <c r="E494" s="4">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F494" s="4">
-        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -18559,11 +17573,9 @@
         <v>494</v>
       </c>
       <c r="E495" s="4">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F495" s="4">
-        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -18578,11 +17590,9 @@
         <v>495</v>
       </c>
       <c r="E496" s="4">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F496" s="4">
-        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -18597,11 +17607,9 @@
         <v>496</v>
       </c>
       <c r="E497" s="4">
-        <f t="shared" si="14"/>
         <v>0.8971516002308273</v>
       </c>
       <c r="F497" s="4">
-        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -18616,11 +17624,9 @@
         <v>497</v>
       </c>
       <c r="E498" s="4">
-        <f t="shared" si="14"/>
         <v>0.68341151150790003</v>
       </c>
       <c r="F498" s="4">
-        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -18635,11 +17641,9 @@
         <v>498</v>
       </c>
       <c r="E499" s="4">
-        <f t="shared" si="14"/>
         <v>0.53402709960937544</v>
       </c>
       <c r="F499" s="4">
-        <f t="shared" si="15"/>
         <v>0.62476603190104341</v>
       </c>
     </row>
@@ -18654,11 +17658,9 @@
         <v>499</v>
       </c>
       <c r="E500" s="4">
-        <f t="shared" si="14"/>
         <v>0.43016633120450093</v>
       </c>
       <c r="F500" s="4">
-        <f t="shared" si="15"/>
         <v>0.24394321441650332</v>
       </c>
     </row>
@@ -18673,11 +17675,9 @@
         <v>500</v>
       </c>
       <c r="E501" s="4">
-        <f t="shared" si="14"/>
         <v>0.34127209403298092</v>
       </c>
       <c r="F501" s="4">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -18692,11 +17692,9 @@
         <v>501</v>
       </c>
       <c r="E502" s="4">
-        <f t="shared" si="14"/>
         <v>0.23350637609308456</v>
       </c>
       <c r="F502" s="4">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -18711,11 +17709,9 @@
         <v>502</v>
       </c>
       <c r="E503" s="4">
-        <f t="shared" si="14"/>
         <v>0.16891501166603815</v>
       </c>
       <c r="F503" s="4">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -18730,11 +17726,9 @@
         <v>503</v>
       </c>
       <c r="E504" s="4">
-        <f t="shared" si="14"/>
         <v>0.17473324862393458</v>
       </c>
       <c r="F504" s="4">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -18749,11 +17743,9 @@
         <v>504</v>
       </c>
       <c r="E505" s="4">
-        <f t="shared" si="14"/>
         <v>0.20881548794833088</v>
       </c>
       <c r="F505" s="4">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -18768,11 +17760,9 @@
         <v>505</v>
       </c>
       <c r="E506" s="4">
-        <f t="shared" si="14"/>
         <v>0.24455612356012543</v>
       </c>
       <c r="F506" s="4">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -18787,11 +17777,9 @@
         <v>506</v>
       </c>
       <c r="E507" s="4">
-        <f t="shared" si="14"/>
         <v>0.27494378523393093</v>
       </c>
       <c r="F507" s="4">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -18806,11 +17794,9 @@
         <v>507</v>
       </c>
       <c r="E508" s="4">
-        <f t="shared" si="14"/>
         <v>0.31828594207763639</v>
       </c>
       <c r="F508" s="4">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -18825,11 +17811,9 @@
         <v>508</v>
       </c>
       <c r="E509" s="4">
-        <f t="shared" si="14"/>
         <v>0.39504467357288725</v>
       </c>
       <c r="F509" s="4">
-        <f t="shared" si="15"/>
         <v>0.11516380310058653</v>
       </c>
     </row>
@@ -18844,11 +17828,9 @@
         <v>509</v>
       </c>
       <c r="E510" s="4">
-        <f t="shared" si="14"/>
         <v>0.51450590653853001</v>
       </c>
       <c r="F510" s="4">
-        <f t="shared" si="15"/>
         <v>0.55318832397460993</v>
       </c>
     </row>
@@ -18863,11 +17845,9 @@
         <v>510</v>
       </c>
       <c r="E511" s="4">
-        <f t="shared" si="14"/>
         <v>0.64931696111505455</v>
       </c>
       <c r="F511" s="4">
-        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -18882,11 +17862,9 @@
         <v>511</v>
       </c>
       <c r="E512" s="4">
-        <f t="shared" si="14"/>
         <v>0.77039467204700918</v>
       </c>
       <c r="F512" s="4">
-        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -18901,11 +17879,9 @@
         <v>512</v>
       </c>
       <c r="E513" s="4">
-        <f t="shared" si="14"/>
         <v>0.87706123698841809</v>
       </c>
       <c r="F513" s="4">
-        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -18920,11 +17896,9 @@
         <v>513</v>
       </c>
       <c r="E514" s="4">
-        <f t="shared" si="14"/>
         <v>0.98637511513449994</v>
       </c>
       <c r="F514" s="4">
-        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -18939,11 +17913,9 @@
         <v>514</v>
       </c>
       <c r="E515" s="4">
-        <f t="shared" ref="E515:E578" si="16">IF(B515&gt;$K$3,0,IF(B515&lt;$I$3,0,IF(B515&gt;$J$3,1,(B515-$I$3)/($J$3-$I$3))))</f>
         <v>1</v>
       </c>
       <c r="F515" s="4">
-        <f t="shared" ref="F515:F578" si="17">IF(B515&gt;$K$4,0,IF(B515&lt;$I$4,0,IF(B515&gt;$J$4,1,(B515-$I$4)/($J$4-$I$4))))</f>
         <v>1</v>
       </c>
     </row>
@@ -18958,11 +17930,9 @@
         <v>515</v>
       </c>
       <c r="E516" s="4">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F516" s="4">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -18977,11 +17947,9 @@
         <v>516</v>
       </c>
       <c r="E517" s="4">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F517" s="4">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -18996,11 +17964,9 @@
         <v>517</v>
       </c>
       <c r="E518" s="4">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F518" s="4">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -19015,11 +17981,9 @@
         <v>518</v>
       </c>
       <c r="E519" s="4">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F519" s="4">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -19034,11 +17998,9 @@
         <v>519</v>
       </c>
       <c r="E520" s="4">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F520" s="4">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -19053,11 +18015,9 @@
         <v>520</v>
       </c>
       <c r="E521" s="4">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F521" s="4">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -19072,11 +18032,9 @@
         <v>521</v>
       </c>
       <c r="E522" s="4">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F522" s="4">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -19091,11 +18049,9 @@
         <v>522</v>
       </c>
       <c r="E523" s="4">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F523" s="4">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -19110,11 +18066,9 @@
         <v>523</v>
       </c>
       <c r="E524" s="4">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F524" s="4">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -19129,11 +18083,9 @@
         <v>524</v>
       </c>
       <c r="E525" s="4">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F525" s="4">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -19148,11 +18100,9 @@
         <v>525</v>
       </c>
       <c r="E526" s="4">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F526" s="4">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -19167,11 +18117,9 @@
         <v>526</v>
       </c>
       <c r="E527" s="4">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F527" s="4">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -19186,11 +18134,9 @@
         <v>527</v>
       </c>
       <c r="E528" s="4">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F528" s="4">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -19205,11 +18151,9 @@
         <v>528</v>
       </c>
       <c r="E529" s="4">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F529" s="4">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -19224,11 +18168,9 @@
         <v>529</v>
       </c>
       <c r="E530" s="4">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F530" s="4">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -19243,11 +18185,9 @@
         <v>530</v>
       </c>
       <c r="E531" s="4">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F531" s="4">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -19262,11 +18202,9 @@
         <v>531</v>
       </c>
       <c r="E532" s="4">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F532" s="4">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -19281,11 +18219,9 @@
         <v>532</v>
       </c>
       <c r="E533" s="4">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F533" s="4">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -19300,11 +18236,9 @@
         <v>533</v>
       </c>
       <c r="E534" s="4">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F534" s="4">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -19319,11 +18253,9 @@
         <v>534</v>
       </c>
       <c r="E535" s="4">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F535" s="4">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -19338,11 +18270,9 @@
         <v>535</v>
       </c>
       <c r="E536" s="4">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F536" s="4">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -19357,11 +18287,9 @@
         <v>536</v>
       </c>
       <c r="E537" s="4">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F537" s="4">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -19376,11 +18304,9 @@
         <v>537</v>
       </c>
       <c r="E538" s="4">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F538" s="4">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -19395,11 +18321,9 @@
         <v>538</v>
       </c>
       <c r="E539" s="4">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F539" s="4">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -19414,11 +18338,9 @@
         <v>539</v>
       </c>
       <c r="E540" s="4">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F540" s="4">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -19433,11 +18355,9 @@
         <v>540</v>
       </c>
       <c r="E541" s="4">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F541" s="4">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -19452,11 +18372,9 @@
         <v>541</v>
       </c>
       <c r="E542" s="4">
-        <f t="shared" si="16"/>
         <v>0.9740350029685273</v>
       </c>
       <c r="F542" s="4">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -19471,11 +18389,9 @@
         <v>542</v>
       </c>
       <c r="E543" s="4">
-        <f t="shared" si="16"/>
         <v>0.95227284864945461</v>
       </c>
       <c r="F543" s="4">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -19490,11 +18406,9 @@
         <v>543</v>
       </c>
       <c r="E544" s="4">
-        <f t="shared" si="16"/>
         <v>0.94851909984241811</v>
       </c>
       <c r="F544" s="4">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -19509,11 +18423,9 @@
         <v>544</v>
       </c>
       <c r="E545" s="4">
-        <f t="shared" si="16"/>
         <v>0.95726151899858181</v>
       </c>
       <c r="F545" s="4">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -19528,11 +18440,9 @@
         <v>545</v>
       </c>
       <c r="E546" s="4">
-        <f t="shared" si="16"/>
         <v>0.94711693850430911</v>
       </c>
       <c r="F546" s="4">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -19547,11 +18457,9 @@
         <v>546</v>
       </c>
       <c r="E547" s="4">
-        <f t="shared" si="16"/>
         <v>0.91608116843483633</v>
       </c>
       <c r="F547" s="4">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -19566,11 +18474,9 @@
         <v>547</v>
       </c>
       <c r="E548" s="4">
-        <f t="shared" si="16"/>
         <v>0.89517029848965457</v>
       </c>
       <c r="F548" s="4">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -19585,11 +18491,9 @@
         <v>548</v>
       </c>
       <c r="E549" s="4">
-        <f t="shared" si="16"/>
         <v>0.90934692729602729</v>
       </c>
       <c r="F549" s="4">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -19604,11 +18508,9 @@
         <v>549</v>
       </c>
       <c r="E550" s="4">
-        <f t="shared" si="16"/>
         <v>0.93205755407159996</v>
       </c>
       <c r="F550" s="4">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -19623,11 +18525,9 @@
         <v>550</v>
       </c>
       <c r="E551" s="4">
-        <f t="shared" si="16"/>
         <v>0.9488944140347545</v>
       </c>
       <c r="F551" s="4">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -19642,11 +18542,9 @@
         <v>551</v>
       </c>
       <c r="E552" s="4">
-        <f t="shared" si="16"/>
         <v>0.96634179895574546</v>
       </c>
       <c r="F552" s="4">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -19661,11 +18559,9 @@
         <v>552</v>
       </c>
       <c r="E553" s="4">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F553" s="4">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -19680,11 +18576,9 @@
         <v>553</v>
       </c>
       <c r="E554" s="4">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F554" s="4">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -19699,11 +18593,9 @@
         <v>554</v>
       </c>
       <c r="E555" s="4">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F555" s="4">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -19718,11 +18610,9 @@
         <v>555</v>
       </c>
       <c r="E556" s="4">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F556" s="4">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -19737,11 +18627,9 @@
         <v>556</v>
       </c>
       <c r="E557" s="4">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F557" s="4">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -19756,11 +18644,9 @@
         <v>557</v>
       </c>
       <c r="E558" s="4">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F558" s="4">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -19775,11 +18661,9 @@
         <v>558</v>
       </c>
       <c r="E559" s="4">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F559" s="4">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -19794,11 +18678,9 @@
         <v>559</v>
       </c>
       <c r="E560" s="4">
-        <f t="shared" si="16"/>
         <v>0.9826765060424818</v>
       </c>
       <c r="F560" s="4">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -19813,11 +18695,9 @@
         <v>560</v>
       </c>
       <c r="E561" s="4">
-        <f t="shared" si="16"/>
         <v>0.89651827378706372</v>
       </c>
       <c r="F561" s="4">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -19832,11 +18712,9 @@
         <v>561</v>
       </c>
       <c r="E562" s="4">
-        <f t="shared" si="16"/>
         <v>0.81051999872380909</v>
       </c>
       <c r="F562" s="4">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -19851,11 +18729,9 @@
         <v>562</v>
       </c>
       <c r="E563" s="4">
-        <f t="shared" si="16"/>
         <v>0.74465638940984558</v>
       </c>
       <c r="F563" s="4">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -19870,11 +18746,9 @@
         <v>563</v>
       </c>
       <c r="E564" s="4">
-        <f t="shared" si="16"/>
         <v>0.69704142483798182</v>
       </c>
       <c r="F564" s="4">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -19889,11 +18763,9 @@
         <v>564</v>
       </c>
       <c r="E565" s="4">
-        <f t="shared" si="16"/>
         <v>0.62550267306240914</v>
       </c>
       <c r="F565" s="4">
-        <f t="shared" si="17"/>
         <v>0.96017646789550015</v>
       </c>
     </row>
@@ -19908,11 +18780,9 @@
         <v>565</v>
       </c>
       <c r="E566" s="4">
-        <f t="shared" si="16"/>
         <v>0.50532800501043174</v>
       </c>
       <c r="F566" s="4">
-        <f t="shared" si="17"/>
         <v>0.51953601837158325</v>
       </c>
     </row>
@@ -19927,11 +18797,9 @@
         <v>566</v>
       </c>
       <c r="E567" s="4">
-        <f t="shared" si="16"/>
         <v>0.36711519414728372</v>
       </c>
       <c r="F567" s="4">
-        <f t="shared" si="17"/>
         <v>1.2755711873373579E-2</v>
       </c>
     </row>
@@ -19946,11 +18814,9 @@
         <v>567</v>
       </c>
       <c r="E568" s="4">
-        <f t="shared" si="16"/>
         <v>0.26356276598843636</v>
       </c>
       <c r="F568" s="4">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -19965,11 +18831,9 @@
         <v>568</v>
       </c>
       <c r="E569" s="4">
-        <f t="shared" si="16"/>
         <v>0.1856534264304418</v>
       </c>
       <c r="F569" s="4">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -19984,11 +18848,9 @@
         <v>569</v>
       </c>
       <c r="E570" s="4">
-        <f t="shared" si="16"/>
         <v>0.16229820251464819</v>
       </c>
       <c r="F570" s="4">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -20003,11 +18865,9 @@
         <v>570</v>
       </c>
       <c r="E571" s="4">
-        <f t="shared" si="16"/>
         <v>0.17671455036510089</v>
       </c>
       <c r="F571" s="4">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -20022,11 +18882,9 @@
         <v>571</v>
       </c>
       <c r="E572" s="4">
-        <f t="shared" si="16"/>
         <v>0.23248078606345454</v>
       </c>
       <c r="F572" s="4">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -20041,11 +18899,9 @@
         <v>572</v>
       </c>
       <c r="E573" s="4">
-        <f t="shared" si="16"/>
         <v>0.35444753820245906</v>
       </c>
       <c r="F573" s="4">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -20060,11 +18916,9 @@
         <v>573</v>
       </c>
       <c r="E574" s="4">
-        <f t="shared" si="16"/>
         <v>0.54259126836603366</v>
       </c>
       <c r="F574" s="4">
-        <f t="shared" si="17"/>
         <v>0.65616798400879028</v>
       </c>
     </row>
@@ -20079,11 +18933,9 @@
         <v>574</v>
       </c>
       <c r="E575" s="4">
-        <f t="shared" si="16"/>
         <v>0.71545401486483629</v>
       </c>
       <c r="F575" s="4">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -20098,11 +18950,9 @@
         <v>575</v>
       </c>
       <c r="E576" s="4">
-        <f t="shared" si="16"/>
         <v>0.80030814084140001</v>
       </c>
       <c r="F576" s="4">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -20117,11 +18967,9 @@
         <v>576</v>
       </c>
       <c r="E577" s="4">
-        <f t="shared" si="16"/>
         <v>0.79742284254594542</v>
       </c>
       <c r="F577" s="4">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -20136,11 +18984,9 @@
         <v>577</v>
       </c>
       <c r="E578" s="4">
-        <f t="shared" si="16"/>
         <v>0.7904971729625363</v>
       </c>
       <c r="F578" s="4">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -20155,11 +19001,9 @@
         <v>578</v>
       </c>
       <c r="E579" s="4">
-        <f t="shared" ref="E579:E642" si="18">IF(B579&gt;$K$3,0,IF(B579&lt;$I$3,0,IF(B579&gt;$J$3,1,(B579-$I$3)/($J$3-$I$3))))</f>
         <v>0.78953838348389094</v>
       </c>
       <c r="F579" s="4">
-        <f t="shared" ref="F579:F642" si="19">IF(B579&gt;$K$4,0,IF(B579&lt;$I$4,0,IF(B579&gt;$J$4,1,(B579-$I$4)/($J$4-$I$4))))</f>
         <v>1</v>
       </c>
     </row>
@@ -20174,11 +19018,9 @@
         <v>579</v>
       </c>
       <c r="E580" s="4">
-        <f t="shared" si="18"/>
         <v>0.77076417749578185</v>
       </c>
       <c r="F580" s="4">
-        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -20193,11 +19035,9 @@
         <v>580</v>
       </c>
       <c r="E581" s="4">
-        <f t="shared" si="18"/>
         <v>0.70734812996604546</v>
       </c>
       <c r="F581" s="4">
-        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -20212,11 +19052,9 @@
         <v>581</v>
       </c>
       <c r="E582" s="4">
-        <f t="shared" si="18"/>
         <v>0.63065667585892726</v>
       </c>
       <c r="F582" s="4">
-        <f t="shared" si="19"/>
         <v>0.97907447814939985</v>
       </c>
     </row>
@@ -20231,11 +19069,9 @@
         <v>582</v>
       </c>
       <c r="E583" s="4">
-        <f t="shared" si="18"/>
         <v>0.57219539989124546</v>
       </c>
       <c r="F583" s="4">
-        <f t="shared" si="19"/>
         <v>0.76471646626790013</v>
       </c>
     </row>
@@ -20250,11 +19086,9 @@
         <v>583</v>
       </c>
       <c r="E584" s="4">
-        <f t="shared" si="18"/>
         <v>0.52658948031338815</v>
       </c>
       <c r="F584" s="4">
-        <f t="shared" si="19"/>
         <v>0.59749476114908973</v>
       </c>
     </row>
@@ -20269,11 +19103,9 @@
         <v>584</v>
       </c>
       <c r="E585" s="4">
-        <f t="shared" si="18"/>
         <v>0.52232560244473547</v>
       </c>
       <c r="F585" s="4">
-        <f t="shared" si="19"/>
         <v>0.58186054229736328</v>
       </c>
     </row>
@@ -20288,11 +19120,9 @@
         <v>585</v>
       </c>
       <c r="E586" s="4">
-        <f t="shared" si="18"/>
         <v>0.57072578776966365</v>
       </c>
       <c r="F586" s="4">
-        <f t="shared" si="19"/>
         <v>0.75932788848876653</v>
       </c>
     </row>
@@ -20307,11 +19137,9 @@
         <v>586</v>
       </c>
       <c r="E587" s="4">
-        <f t="shared" si="18"/>
         <v>0.64223480224609086</v>
       </c>
       <c r="F587" s="4">
-        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -20326,11 +19154,9 @@
         <v>587</v>
       </c>
       <c r="E588" s="4">
-        <f t="shared" si="18"/>
         <v>0.72291365536776364</v>
       </c>
       <c r="F588" s="4">
-        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -20345,11 +19171,9 @@
         <v>588</v>
       </c>
       <c r="E589" s="4">
-        <f t="shared" si="18"/>
         <v>0.79924236644398183</v>
       </c>
       <c r="F589" s="4">
-        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -20364,11 +19188,9 @@
         <v>589</v>
       </c>
       <c r="E590" s="4">
-        <f t="shared" si="18"/>
         <v>0.85495315898548185</v>
       </c>
       <c r="F590" s="4">
-        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -20383,11 +19205,9 @@
         <v>590</v>
       </c>
       <c r="E591" s="4">
-        <f t="shared" si="18"/>
         <v>0.88240042599764545</v>
       </c>
       <c r="F591" s="4">
-        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -20402,11 +19222,9 @@
         <v>591</v>
       </c>
       <c r="E592" s="4">
-        <f t="shared" si="18"/>
         <v>0.88271453163840907</v>
       </c>
       <c r="F592" s="4">
-        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -20421,11 +19239,9 @@
         <v>592</v>
       </c>
       <c r="E593" s="4">
-        <f t="shared" si="18"/>
         <v>0.84946216236460903</v>
       </c>
       <c r="F593" s="4">
-        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -20440,11 +19256,9 @@
         <v>593</v>
       </c>
       <c r="E594" s="4">
-        <f t="shared" si="18"/>
         <v>0.81177269328724544</v>
       </c>
       <c r="F594" s="4">
-        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -20459,11 +19273,9 @@
         <v>594</v>
       </c>
       <c r="E595" s="4">
-        <f t="shared" si="18"/>
         <v>0.77359841086648184</v>
       </c>
       <c r="F595" s="4">
-        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -20478,11 +19290,9 @@
         <v>595</v>
       </c>
       <c r="E596" s="4">
-        <f t="shared" si="18"/>
         <v>0.73396509343927263</v>
       </c>
       <c r="F596" s="4">
-        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -20497,11 +19307,9 @@
         <v>596</v>
       </c>
       <c r="E597" s="4">
-        <f t="shared" si="18"/>
         <v>0.68314361572265447</v>
       </c>
       <c r="F597" s="4">
-        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -20516,11 +19324,9 @@
         <v>597</v>
       </c>
       <c r="E598" s="4">
-        <f t="shared" si="18"/>
         <v>0.64695861122824538</v>
       </c>
       <c r="F598" s="4">
-        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -20535,11 +19341,9 @@
         <v>598</v>
       </c>
       <c r="E599" s="4">
-        <f t="shared" si="18"/>
         <v>0.61924431540749092</v>
       </c>
       <c r="F599" s="4">
-        <f t="shared" si="19"/>
         <v>0.93722915649413352</v>
       </c>
     </row>
@@ -20554,11 +19358,9 @@
         <v>599</v>
       </c>
       <c r="E600" s="4">
-        <f t="shared" si="18"/>
         <v>0.59563315998424538</v>
       </c>
       <c r="F600" s="4">
-        <f t="shared" si="19"/>
         <v>0.85065491994223308</v>
       </c>
     </row>
@@ -20573,11 +19375,9 @@
         <v>600</v>
       </c>
       <c r="E601" s="4">
-        <f t="shared" si="18"/>
         <v>0.56393224542790898</v>
       </c>
       <c r="F601" s="4">
-        <f t="shared" si="19"/>
         <v>0.73441823323566646</v>
       </c>
     </row>
@@ -20592,11 +19392,9 @@
         <v>601</v>
       </c>
       <c r="E602" s="4">
-        <f t="shared" si="18"/>
         <v>0.51195170662619816</v>
       </c>
       <c r="F602" s="4">
-        <f t="shared" si="19"/>
         <v>0.54382292429606005</v>
       </c>
     </row>
@@ -20611,11 +19409,9 @@
         <v>602</v>
       </c>
       <c r="E603" s="4">
-        <f t="shared" si="18"/>
         <v>0.45176141912286916</v>
       </c>
       <c r="F603" s="4">
-        <f t="shared" si="19"/>
         <v>0.32312520345052026</v>
       </c>
     </row>
@@ -20630,11 +19426,9 @@
         <v>603</v>
       </c>
       <c r="E604" s="4">
-        <f t="shared" si="18"/>
         <v>0.39582677321000548</v>
       </c>
       <c r="F604" s="4">
-        <f t="shared" si="19"/>
         <v>0.11803150177002013</v>
       </c>
     </row>
@@ -20649,11 +19443,9 @@
         <v>604</v>
       </c>
       <c r="E605" s="4">
-        <f t="shared" si="18"/>
         <v>0.37310114773837005</v>
       </c>
       <c r="F605" s="4">
-        <f t="shared" si="19"/>
         <v>3.4704208374023438E-2</v>
       </c>
     </row>
@@ -20668,11 +19460,9 @@
         <v>605</v>
       </c>
       <c r="E606" s="4">
-        <f t="shared" si="18"/>
         <v>0.3562075008045546</v>
       </c>
       <c r="F606" s="4">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -20687,11 +19477,9 @@
         <v>606</v>
       </c>
       <c r="E607" s="4">
-        <f t="shared" si="18"/>
         <v>0.31564612822099181</v>
       </c>
       <c r="F607" s="4">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -20706,11 +19494,9 @@
         <v>607</v>
       </c>
       <c r="E608" s="4">
-        <f t="shared" si="18"/>
         <v>0.25062040849165451</v>
       </c>
       <c r="F608" s="4">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -20725,11 +19511,9 @@
         <v>608</v>
       </c>
       <c r="E609" s="4">
-        <f t="shared" si="18"/>
         <v>0.17739486694335904</v>
       </c>
       <c r="F609" s="4">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -20744,11 +19528,9 @@
         <v>609</v>
       </c>
       <c r="E610" s="4">
-        <f t="shared" si="18"/>
         <v>0.12135050513527634</v>
       </c>
       <c r="F610" s="4">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -20763,11 +19545,9 @@
         <v>610</v>
       </c>
       <c r="E611" s="4">
-        <f t="shared" si="18"/>
         <v>5.2569476040927252E-2</v>
       </c>
       <c r="F611" s="4">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -20782,11 +19562,9 @@
         <v>611</v>
       </c>
       <c r="E612" s="4">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F612" s="4">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -20801,11 +19579,9 @@
         <v>612</v>
       </c>
       <c r="E613" s="4">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F613" s="4">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -20820,11 +19596,9 @@
         <v>613</v>
       </c>
       <c r="E614" s="4">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F614" s="4">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -20839,11 +19613,9 @@
         <v>614</v>
       </c>
       <c r="E615" s="4">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F615" s="4">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -20858,11 +19630,9 @@
         <v>615</v>
       </c>
       <c r="E616" s="4">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F616" s="4">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -20877,11 +19647,9 @@
         <v>616</v>
       </c>
       <c r="E617" s="4">
-        <f t="shared" si="18"/>
         <v>4.0121511979536581E-3</v>
       </c>
       <c r="F617" s="4">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -20896,11 +19664,9 @@
         <v>617</v>
       </c>
       <c r="E618" s="4">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F618" s="4">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -20915,11 +19681,9 @@
         <v>618</v>
       </c>
       <c r="E619" s="4">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F619" s="4">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -20934,11 +19698,9 @@
         <v>619</v>
       </c>
       <c r="E620" s="4">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F620" s="4">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -20953,11 +19715,9 @@
         <v>620</v>
       </c>
       <c r="E621" s="4">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F621" s="4">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -20972,11 +19732,9 @@
         <v>621</v>
       </c>
       <c r="E622" s="4">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F622" s="4">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -20991,11 +19749,9 @@
         <v>622</v>
       </c>
       <c r="E623" s="4">
-        <f t="shared" si="18"/>
         <v>9.5767974853518054E-3</v>
       </c>
       <c r="F623" s="4">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -21010,11 +19766,9 @@
         <v>623</v>
       </c>
       <c r="E624" s="4">
-        <f t="shared" si="18"/>
         <v>7.0464741099964576E-2</v>
       </c>
       <c r="F624" s="4">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -21029,11 +19783,9 @@
         <v>624</v>
       </c>
       <c r="E625" s="4">
-        <f t="shared" si="18"/>
         <v>0.14383146979592087</v>
       </c>
       <c r="F625" s="4">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -21048,11 +19800,9 @@
         <v>625</v>
       </c>
       <c r="E626" s="4">
-        <f t="shared" si="18"/>
         <v>0.20336710322986909</v>
       </c>
       <c r="F626" s="4">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -21067,11 +19817,9 @@
         <v>626</v>
       </c>
       <c r="E627" s="4">
-        <f t="shared" si="18"/>
         <v>0.23498652198097905</v>
       </c>
       <c r="F627" s="4">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -21086,11 +19834,9 @@
         <v>627</v>
       </c>
       <c r="E628" s="4">
-        <f t="shared" si="18"/>
         <v>0.24683167717673546</v>
       </c>
       <c r="F628" s="4">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -21105,11 +19851,9 @@
         <v>628</v>
       </c>
       <c r="E629" s="4">
-        <f t="shared" si="18"/>
         <v>0.26860883019187276</v>
       </c>
       <c r="F629" s="4">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -21124,11 +19868,9 @@
         <v>629</v>
       </c>
       <c r="E630" s="4">
-        <f t="shared" si="18"/>
         <v>0.27271253412420093</v>
       </c>
       <c r="F630" s="4">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -21143,11 +19885,9 @@
         <v>630</v>
       </c>
       <c r="E631" s="4">
-        <f t="shared" si="18"/>
         <v>0.25048385966907816</v>
       </c>
       <c r="F631" s="4">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -21162,11 +19902,9 @@
         <v>631</v>
       </c>
       <c r="E632" s="4">
-        <f t="shared" si="18"/>
         <v>0.21135291186245997</v>
       </c>
       <c r="F632" s="4">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -21181,11 +19919,9 @@
         <v>632</v>
       </c>
       <c r="E633" s="4">
-        <f t="shared" si="18"/>
         <v>0.18485212326049821</v>
       </c>
       <c r="F633" s="4">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -21200,11 +19936,9 @@
         <v>633</v>
       </c>
       <c r="E634" s="4">
-        <f t="shared" si="18"/>
         <v>0.15069996226917637</v>
       </c>
       <c r="F634" s="4">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -21219,11 +19953,9 @@
         <v>634</v>
       </c>
       <c r="E635" s="4">
-        <f t="shared" si="18"/>
         <v>0.11303823644464633</v>
       </c>
       <c r="F635" s="4">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -21238,11 +19970,9 @@
         <v>635</v>
       </c>
       <c r="E636" s="4">
-        <f t="shared" si="18"/>
         <v>8.5238846865567292E-2</v>
       </c>
       <c r="F636" s="4">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -21257,11 +19987,9 @@
         <v>636</v>
       </c>
       <c r="E637" s="4">
-        <f t="shared" si="18"/>
         <v>8.4385958584871842E-2</v>
       </c>
       <c r="F637" s="4">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -21276,11 +20004,9 @@
         <v>637</v>
       </c>
       <c r="E638" s="4">
-        <f t="shared" si="18"/>
         <v>0.10499659451571362</v>
       </c>
       <c r="F638" s="4">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -21295,11 +20021,9 @@
         <v>638</v>
       </c>
       <c r="E639" s="4">
-        <f t="shared" si="18"/>
         <v>0.12414706837047271</v>
       </c>
       <c r="F639" s="4">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -21314,11 +20038,9 @@
         <v>639</v>
       </c>
       <c r="E640" s="4">
-        <f t="shared" si="18"/>
         <v>0.12673807144164997</v>
       </c>
       <c r="F640" s="4">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -21333,11 +20055,9 @@
         <v>640</v>
       </c>
       <c r="E641" s="4">
-        <f t="shared" si="18"/>
         <v>0.11367386037653184</v>
       </c>
       <c r="F641" s="4">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -21352,11 +20072,9 @@
         <v>641</v>
       </c>
       <c r="E642" s="4">
-        <f t="shared" si="18"/>
         <v>9.1303001750599092E-2</v>
       </c>
       <c r="F642" s="4">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -21371,11 +20089,9 @@
         <v>642</v>
       </c>
       <c r="E643" s="4">
-        <f t="shared" ref="E643:E673" si="20">IF(B643&gt;$K$3,0,IF(B643&lt;$I$3,0,IF(B643&gt;$J$3,1,(B643-$I$3)/($J$3-$I$3))))</f>
         <v>7.4924122203480034E-2</v>
       </c>
       <c r="F643" s="4">
-        <f t="shared" ref="F643:F673" si="21">IF(B643&gt;$K$4,0,IF(B643&lt;$I$4,0,IF(B643&gt;$J$4,1,(B643-$I$4)/($J$4-$I$4))))</f>
         <v>0</v>
       </c>
     </row>
@@ -21390,11 +20106,9 @@
         <v>643</v>
       </c>
       <c r="E644" s="4">
-        <f t="shared" si="20"/>
         <v>6.5829450433904549E-2</v>
       </c>
       <c r="F644" s="4">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -21409,11 +20123,9 @@
         <v>644</v>
       </c>
       <c r="E645" s="4">
-        <f t="shared" si="20"/>
         <v>5.3927985104647309E-2</v>
       </c>
       <c r="F645" s="4">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -21428,11 +20140,9 @@
         <v>645</v>
       </c>
       <c r="E646" s="4">
-        <f t="shared" si="20"/>
         <v>3.5583149303089083E-2</v>
       </c>
       <c r="F646" s="4">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -21447,11 +20157,9 @@
         <v>646</v>
       </c>
       <c r="E647" s="4">
-        <f t="shared" si="20"/>
         <v>4.2591398412530908E-2</v>
       </c>
       <c r="F647" s="4">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -21466,11 +20174,9 @@
         <v>647</v>
       </c>
       <c r="E648" s="4">
-        <f t="shared" si="20"/>
         <v>5.758892406116816E-2</v>
       </c>
       <c r="F648" s="4">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -21485,11 +20191,9 @@
         <v>648</v>
       </c>
       <c r="E649" s="4">
-        <f t="shared" si="20"/>
         <v>7.390403747558634E-2</v>
       </c>
       <c r="F649" s="4">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -21504,11 +20208,9 @@
         <v>649</v>
       </c>
       <c r="E650" s="4">
-        <f t="shared" si="20"/>
         <v>0.1007120392539282</v>
       </c>
       <c r="F650" s="4">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -21523,11 +20225,9 @@
         <v>650</v>
       </c>
       <c r="E651" s="4">
-        <f t="shared" si="20"/>
         <v>0.12854047255082549</v>
       </c>
       <c r="F651" s="4">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -21542,11 +20242,9 @@
         <v>651</v>
       </c>
       <c r="E652" s="4">
-        <f t="shared" si="20"/>
         <v>0.14875294945456724</v>
       </c>
       <c r="F652" s="4">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -21561,11 +20259,9 @@
         <v>652</v>
       </c>
       <c r="E653" s="4">
-        <f t="shared" si="20"/>
         <v>0.14705458554354547</v>
       </c>
       <c r="F653" s="4">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -21580,11 +20276,9 @@
         <v>653</v>
       </c>
       <c r="E654" s="4">
-        <f t="shared" si="20"/>
         <v>0.12592996250499364</v>
       </c>
       <c r="F654" s="4">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -21599,11 +20293,9 @@
         <v>654</v>
       </c>
       <c r="E655" s="4">
-        <f t="shared" si="20"/>
         <v>9.9948276172984574E-2</v>
       </c>
       <c r="F655" s="4">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -21618,11 +20310,9 @@
         <v>655</v>
       </c>
       <c r="E656" s="4">
-        <f t="shared" si="20"/>
         <v>7.9053358598189086E-2</v>
       </c>
       <c r="F656" s="4">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -21637,11 +20327,9 @@
         <v>656</v>
       </c>
       <c r="E657" s="4">
-        <f t="shared" si="20"/>
         <v>6.8432331085205481E-2</v>
       </c>
       <c r="F657" s="4">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -21656,11 +20344,9 @@
         <v>657</v>
       </c>
       <c r="E658" s="4">
-        <f t="shared" si="20"/>
         <v>6.6848017952659072E-2</v>
       </c>
       <c r="F658" s="4">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -21675,11 +20361,9 @@
         <v>658</v>
       </c>
       <c r="E659" s="4">
-        <f t="shared" si="20"/>
         <v>6.0594775459982729E-2</v>
       </c>
       <c r="F659" s="4">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -21694,11 +20378,9 @@
         <v>659</v>
       </c>
       <c r="E660" s="4">
-        <f t="shared" si="20"/>
         <v>6.1915961178866379E-2</v>
       </c>
       <c r="F660" s="4">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -21713,11 +20395,9 @@
         <v>660</v>
       </c>
       <c r="E661" s="4">
-        <f t="shared" si="20"/>
         <v>6.4306692643599075E-2</v>
       </c>
       <c r="F661" s="4">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -21732,11 +20412,9 @@
         <v>661</v>
       </c>
       <c r="E662" s="4">
-        <f t="shared" si="20"/>
         <v>6.9028420881791785E-2</v>
       </c>
       <c r="F662" s="4">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -21751,11 +20429,9 @@
         <v>662</v>
       </c>
       <c r="E663" s="4">
-        <f t="shared" si="20"/>
         <v>8.0450491471724561E-2</v>
       </c>
       <c r="F663" s="4">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -21770,11 +20446,9 @@
         <v>663</v>
       </c>
       <c r="E664" s="4">
-        <f t="shared" si="20"/>
         <v>9.1503620147705481E-2</v>
       </c>
       <c r="F664" s="4">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -21789,11 +20463,9 @@
         <v>664</v>
       </c>
       <c r="E665" s="4">
-        <f t="shared" si="20"/>
         <v>0.11798615889115727</v>
       </c>
       <c r="F665" s="4">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -21808,11 +20480,9 @@
         <v>665</v>
       </c>
       <c r="E666" s="4">
-        <f t="shared" si="20"/>
         <v>0.13761871511286003</v>
       </c>
       <c r="F666" s="4">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -21827,11 +20497,9 @@
         <v>666</v>
       </c>
       <c r="E667" s="4">
-        <f t="shared" si="20"/>
         <v>0.14939056743275003</v>
       </c>
       <c r="F667" s="4">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -21846,11 +20514,9 @@
         <v>667</v>
       </c>
       <c r="E668" s="4">
-        <f t="shared" si="20"/>
         <v>0.16206013072620731</v>
       </c>
       <c r="F668" s="4">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -21865,11 +20531,9 @@
         <v>668</v>
       </c>
       <c r="E669" s="4">
-        <f t="shared" si="20"/>
         <v>0.17014793916182092</v>
       </c>
       <c r="F669" s="4">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -21884,11 +20548,9 @@
         <v>669</v>
       </c>
       <c r="E670" s="4">
-        <f t="shared" si="20"/>
         <v>0.15768783742731277</v>
       </c>
       <c r="F670" s="4">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -21903,11 +20565,9 @@
         <v>670</v>
       </c>
       <c r="E671" s="4">
-        <f t="shared" si="20"/>
         <v>0.13860585472800546</v>
       </c>
       <c r="F671" s="4">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -21922,11 +20582,9 @@
         <v>671</v>
       </c>
       <c r="E672" s="4">
-        <f t="shared" si="20"/>
         <v>0.1172612363641909</v>
       </c>
       <c r="F672" s="4">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -21941,11 +20599,9 @@
         <v>672</v>
       </c>
       <c r="E673" s="4">
-        <f t="shared" si="20"/>
         <v>9.9143765189430924E-2</v>
       </c>
       <c r="F673" s="4">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
